--- a/4. Resulting Tables and Figures/Tables.xlsx
+++ b/4. Resulting Tables and Figures/Tables.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28180" windowHeight="17540" tabRatio="500" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28180" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="T1" sheetId="1" r:id="rId1"/>
@@ -813,7 +813,6 @@
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -890,6 +889,7 @@
     <xf numFmtId="39" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="39" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="159">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1330,8 +1330,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:C45"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1381,7 +1381,7 @@
       <c r="E2" s="4">
         <v>366.88410428276399</v>
       </c>
-      <c r="F2" s="21">
+      <c r="F2" s="20">
         <f>E2/1000</f>
         <v>0.36688410428276397</v>
       </c>
@@ -1405,7 +1405,7 @@
       <c r="E3" s="4">
         <v>97.430740794433206</v>
       </c>
-      <c r="F3" s="21">
+      <c r="F3" s="20">
         <f t="shared" ref="F3:F46" si="0">E3/1000</f>
         <v>9.7430740794433202E-2</v>
       </c>
@@ -1426,7 +1426,7 @@
       <c r="E4" s="4">
         <v>614.591026437045</v>
       </c>
-      <c r="F4" s="21">
+      <c r="F4" s="20">
         <f t="shared" si="0"/>
         <v>0.614591026437045</v>
       </c>
@@ -1447,7 +1447,7 @@
       <c r="E5" s="4">
         <v>773.00979275090106</v>
       </c>
-      <c r="F5" s="21">
+      <c r="F5" s="20">
         <f t="shared" si="0"/>
         <v>0.77300979275090109</v>
       </c>
@@ -1468,7 +1468,7 @@
       <c r="E6" s="4">
         <v>360.29852440408598</v>
       </c>
-      <c r="F6" s="21">
+      <c r="F6" s="20">
         <f t="shared" si="0"/>
         <v>0.360298524404086</v>
       </c>
@@ -1489,7 +1489,7 @@
       <c r="E7" s="4">
         <v>579.57258086566605</v>
       </c>
-      <c r="F7" s="21">
+      <c r="F7" s="20">
         <f t="shared" si="0"/>
         <v>0.5795725808656661</v>
       </c>
@@ -1510,7 +1510,7 @@
       <c r="E8" s="4">
         <v>871.50081317340903</v>
       </c>
-      <c r="F8" s="21">
+      <c r="F8" s="20">
         <f t="shared" si="0"/>
         <v>0.87150081317340899</v>
       </c>
@@ -1531,7 +1531,7 @@
       <c r="E9" s="4">
         <v>2310.9974334445501</v>
       </c>
-      <c r="F9" s="21">
+      <c r="F9" s="20">
         <f t="shared" si="0"/>
         <v>2.31099743344455</v>
       </c>
@@ -1552,7 +1552,7 @@
       <c r="E10" s="4">
         <v>5610.9634502924</v>
       </c>
-      <c r="F10" s="21">
+      <c r="F10" s="20">
         <f t="shared" si="0"/>
         <v>5.6109634502923997</v>
       </c>
@@ -1573,7 +1573,7 @@
       <c r="E11" s="4">
         <v>2232.0298846937399</v>
       </c>
-      <c r="F11" s="21">
+      <c r="F11" s="20">
         <f t="shared" si="0"/>
         <v>2.2320298846937399</v>
       </c>
@@ -1594,7 +1594,7 @@
       <c r="E12" s="4">
         <v>22312.937872115199</v>
       </c>
-      <c r="F12" s="21">
+      <c r="F12" s="20">
         <f t="shared" si="0"/>
         <v>22.312937872115199</v>
       </c>
@@ -1615,7 +1615,7 @@
       <c r="E13" s="4">
         <v>4784.8948828381599</v>
       </c>
-      <c r="F13" s="21">
+      <c r="F13" s="20">
         <f t="shared" si="0"/>
         <v>4.7848948828381603</v>
       </c>
@@ -1636,7 +1636,7 @@
       <c r="E14" s="4">
         <v>9353.7388054438998</v>
       </c>
-      <c r="F14" s="21">
+      <c r="F14" s="20">
         <f t="shared" si="0"/>
         <v>9.3537388054438999</v>
       </c>
@@ -1657,7 +1657,7 @@
       <c r="E15" s="4">
         <v>26776.1972423302</v>
       </c>
-      <c r="F15" s="21">
+      <c r="F15" s="20">
         <f t="shared" si="0"/>
         <v>26.776197242330198</v>
       </c>
@@ -1678,7 +1678,7 @@
       <c r="E16" s="4">
         <v>14621.498733963501</v>
       </c>
-      <c r="F16" s="21">
+      <c r="F16" s="20">
         <f t="shared" si="0"/>
         <v>14.621498733963501</v>
       </c>
@@ -1699,7 +1699,7 @@
       <c r="E17" s="4">
         <v>6203.0585161279796</v>
       </c>
-      <c r="F17" s="21">
+      <c r="F17" s="20">
         <f t="shared" si="0"/>
         <v>6.2030585161279799</v>
       </c>
@@ -1720,7 +1720,7 @@
       <c r="E18" s="4">
         <v>7962.2264988198303</v>
       </c>
-      <c r="F18" s="21">
+      <c r="F18" s="20">
         <f t="shared" si="0"/>
         <v>7.9622264988198301</v>
       </c>
@@ -1741,7 +1741,7 @@
       <c r="E19" s="4">
         <v>6223.8511413860697</v>
       </c>
-      <c r="F19" s="21">
+      <c r="F19" s="20">
         <f t="shared" si="0"/>
         <v>6.2238511413860698</v>
       </c>
@@ -1762,7 +1762,7 @@
       <c r="E20" s="4">
         <v>22637.066021436101</v>
       </c>
-      <c r="F20" s="21">
+      <c r="F20" s="20">
         <f t="shared" si="0"/>
         <v>22.637066021436102</v>
       </c>
@@ -1783,7 +1783,7 @@
       <c r="E21" s="4">
         <v>31011.894226644901</v>
       </c>
-      <c r="F21" s="21">
+      <c r="F21" s="20">
         <f t="shared" si="0"/>
         <v>31.011894226644902</v>
       </c>
@@ -1804,7 +1804,7 @@
       <c r="E22" s="4">
         <v>40902.323953300001</v>
       </c>
-      <c r="F22" s="21">
+      <c r="F22" s="20">
         <f t="shared" si="0"/>
         <v>40.902323953299998</v>
       </c>
@@ -1825,7 +1825,7 @@
       <c r="E23" s="4">
         <v>23215.434841406401</v>
       </c>
-      <c r="F23" s="21">
+      <c r="F23" s="20">
         <f t="shared" si="0"/>
         <v>23.215434841406399</v>
       </c>
@@ -1846,7 +1846,7 @@
       <c r="E24" s="4">
         <v>36789.8029223427</v>
       </c>
-      <c r="F24" s="21">
+      <c r="F24" s="20">
         <f t="shared" si="0"/>
         <v>36.789802922342702</v>
       </c>
@@ -1867,7 +1867,7 @@
       <c r="E25" s="4">
         <v>57185.086781518803</v>
       </c>
-      <c r="F25" s="21">
+      <c r="F25" s="20">
         <f t="shared" si="0"/>
         <v>57.185086781518805</v>
       </c>
@@ -1888,7 +1888,7 @@
       <c r="E26" s="4">
         <v>38942.552178448597</v>
       </c>
-      <c r="F26" s="21">
+      <c r="F26" s="20">
         <f t="shared" si="0"/>
         <v>38.942552178448594</v>
       </c>
@@ -1909,7 +1909,7 @@
       <c r="E27" s="4">
         <v>41695.857099193898</v>
       </c>
-      <c r="F27" s="21">
+      <c r="F27" s="20">
         <f t="shared" si="0"/>
         <v>41.695857099193901</v>
       </c>
@@ -1930,7 +1930,7 @@
       <c r="E28" s="4">
         <v>74904.501858736097</v>
       </c>
-      <c r="F28" s="21">
+      <c r="F28" s="20">
         <f t="shared" si="0"/>
         <v>74.904501858736097</v>
       </c>
@@ -1951,7 +1951,7 @@
       <c r="E29" s="4">
         <v>74739.961250816297</v>
       </c>
-      <c r="F29" s="21">
+      <c r="F29" s="20">
         <f t="shared" si="0"/>
         <v>74.739961250816293</v>
       </c>
@@ -1972,7 +1972,7 @@
       <c r="E30" s="4">
         <v>42904.265918279001</v>
       </c>
-      <c r="F30" s="21">
+      <c r="F30" s="20">
         <f t="shared" si="0"/>
         <v>42.904265918279002</v>
       </c>
@@ -1993,7 +1993,7 @@
       <c r="E31" s="4">
         <v>28196.202125519201</v>
       </c>
-      <c r="F31" s="21">
+      <c r="F31" s="20">
         <f t="shared" si="0"/>
         <v>28.1962021255192</v>
       </c>
@@ -2014,7 +2014,7 @@
       <c r="E32" s="4">
         <v>13011.820513118</v>
       </c>
-      <c r="F32" s="21">
+      <c r="F32" s="20">
         <f t="shared" si="0"/>
         <v>13.011820513118</v>
       </c>
@@ -2035,7 +2035,7 @@
       <c r="E33" s="4">
         <v>38802.994109501997</v>
       </c>
-      <c r="F33" s="21">
+      <c r="F33" s="20">
         <f t="shared" si="0"/>
         <v>38.802994109501995</v>
       </c>
@@ -2056,7 +2056,7 @@
       <c r="E34" s="4">
         <v>34540.301816621402</v>
       </c>
-      <c r="F34" s="21">
+      <c r="F34" s="20">
         <f t="shared" si="0"/>
         <v>34.540301816621401</v>
       </c>
@@ -2077,7 +2077,7 @@
       <c r="E35" s="4">
         <v>32340.9294164038</v>
       </c>
-      <c r="F35" s="21">
+      <c r="F35" s="20">
         <f t="shared" si="0"/>
         <v>32.340929416403803</v>
       </c>
@@ -2098,7 +2098,7 @@
       <c r="E36" s="4">
         <v>34067.708082438403</v>
       </c>
-      <c r="F36" s="21">
+      <c r="F36" s="20">
         <f t="shared" si="0"/>
         <v>34.067708082438401</v>
       </c>
@@ -2119,7 +2119,7 @@
       <c r="E37" s="4">
         <v>25662.889926509401</v>
       </c>
-      <c r="F37" s="21">
+      <c r="F37" s="20">
         <f t="shared" si="0"/>
         <v>25.662889926509401</v>
       </c>
@@ -2140,7 +2140,7 @@
       <c r="E38" s="4">
         <v>13733.7224320921</v>
       </c>
-      <c r="F38" s="21">
+      <c r="F38" s="20">
         <f t="shared" si="0"/>
         <v>13.733722432092099</v>
       </c>
@@ -2161,7 +2161,7 @@
       <c r="E39" s="4">
         <v>34841.593541712296</v>
       </c>
-      <c r="F39" s="21">
+      <c r="F39" s="20">
         <f t="shared" si="0"/>
         <v>34.841593541712299</v>
       </c>
@@ -2182,7 +2182,7 @@
       <c r="E40" s="4">
         <v>28415.4417425951</v>
       </c>
-      <c r="F40" s="21">
+      <c r="F40" s="20">
         <f t="shared" si="0"/>
         <v>28.4154417425951</v>
       </c>
@@ -2203,7 +2203,7 @@
       <c r="E41" s="4">
         <v>34421.893439013598</v>
       </c>
-      <c r="F41" s="21">
+      <c r="F41" s="20">
         <f t="shared" si="0"/>
         <v>34.421893439013601</v>
       </c>
@@ -2224,7 +2224,7 @@
       <c r="E42" s="4">
         <v>41263.661595313497</v>
       </c>
-      <c r="F42" s="21">
+      <c r="F42" s="20">
         <f t="shared" si="0"/>
         <v>41.263661595313494</v>
       </c>
@@ -2245,7 +2245,7 @@
       <c r="E43" s="4">
         <v>47336.567043110699</v>
       </c>
-      <c r="F43" s="21">
+      <c r="F43" s="20">
         <f t="shared" si="0"/>
         <v>47.336567043110698</v>
       </c>
@@ -2266,7 +2266,7 @@
       <c r="E44" s="4">
         <v>21639.697603147</v>
       </c>
-      <c r="F44" s="21">
+      <c r="F44" s="20">
         <f t="shared" si="0"/>
         <v>21.639697603146999</v>
       </c>
@@ -2287,7 +2287,7 @@
       <c r="E45" s="4">
         <v>10541.7</v>
       </c>
-      <c r="F45" s="21">
+      <c r="F45" s="20">
         <f t="shared" si="0"/>
         <v>10.541700000000001</v>
       </c>
@@ -2299,16 +2299,16 @@
       <c r="B46" s="17">
         <v>8995</v>
       </c>
-      <c r="C46" s="18">
+      <c r="C46" s="56">
         <v>0.17372973108432299</v>
       </c>
-      <c r="D46" s="19">
+      <c r="D46" s="18">
         <v>115.15303529553999</v>
       </c>
       <c r="E46" s="7">
         <v>1035801.55248338</v>
       </c>
-      <c r="F46" s="22">
+      <c r="F46" s="21">
         <f t="shared" si="0"/>
         <v>1035.80155248338</v>
       </c>
@@ -2328,1403 +2328,1403 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="43"/>
-    <col min="2" max="2" width="9.83203125" style="39" customWidth="1"/>
-    <col min="3" max="3" width="9.83203125" style="44" customWidth="1"/>
-    <col min="4" max="4" width="5.6640625" style="44" customWidth="1"/>
-    <col min="5" max="5" width="9.83203125" style="44" customWidth="1"/>
-    <col min="6" max="6" width="5.6640625" style="44" customWidth="1"/>
-    <col min="7" max="7" width="9.83203125" style="44" customWidth="1"/>
-    <col min="8" max="8" width="5.6640625" style="44" customWidth="1"/>
-    <col min="9" max="10" width="9.83203125" style="27" customWidth="1"/>
-    <col min="11" max="12" width="7" style="32" customWidth="1"/>
-    <col min="13" max="13" width="7" style="42" customWidth="1"/>
-    <col min="14" max="14" width="12.1640625" style="32" customWidth="1"/>
-    <col min="15" max="15" width="6.83203125" style="45" customWidth="1"/>
-    <col min="16" max="16" width="6.83203125" style="42" customWidth="1"/>
-    <col min="17" max="17" width="6.83203125" style="45" customWidth="1"/>
-    <col min="18" max="18" width="6.83203125" style="42" customWidth="1"/>
-    <col min="19" max="20" width="6.83203125" style="46" customWidth="1"/>
-    <col min="21" max="21" width="6.83203125" style="42" customWidth="1"/>
-    <col min="22" max="23" width="6.83203125" style="32" customWidth="1"/>
-    <col min="24" max="24" width="6.83203125" style="42" customWidth="1"/>
-    <col min="25" max="25" width="6.83203125" style="32" customWidth="1"/>
-    <col min="26" max="16384" width="10.83203125" style="43"/>
+    <col min="1" max="1" width="10.83203125" style="42"/>
+    <col min="2" max="2" width="9.83203125" style="38" customWidth="1"/>
+    <col min="3" max="3" width="9.83203125" style="43" customWidth="1"/>
+    <col min="4" max="4" width="5.6640625" style="43" customWidth="1"/>
+    <col min="5" max="5" width="9.83203125" style="43" customWidth="1"/>
+    <col min="6" max="6" width="5.6640625" style="43" customWidth="1"/>
+    <col min="7" max="7" width="9.83203125" style="43" customWidth="1"/>
+    <col min="8" max="8" width="5.6640625" style="43" customWidth="1"/>
+    <col min="9" max="10" width="9.83203125" style="26" customWidth="1"/>
+    <col min="11" max="12" width="7" style="31" customWidth="1"/>
+    <col min="13" max="13" width="7" style="41" customWidth="1"/>
+    <col min="14" max="14" width="12.1640625" style="31" customWidth="1"/>
+    <col min="15" max="15" width="6.83203125" style="44" customWidth="1"/>
+    <col min="16" max="16" width="6.83203125" style="41" customWidth="1"/>
+    <col min="17" max="17" width="6.83203125" style="44" customWidth="1"/>
+    <col min="18" max="18" width="6.83203125" style="41" customWidth="1"/>
+    <col min="19" max="20" width="6.83203125" style="45" customWidth="1"/>
+    <col min="21" max="21" width="6.83203125" style="41" customWidth="1"/>
+    <col min="22" max="23" width="6.83203125" style="31" customWidth="1"/>
+    <col min="24" max="24" width="6.83203125" style="41" customWidth="1"/>
+    <col min="25" max="25" width="6.83203125" style="31" customWidth="1"/>
+    <col min="26" max="16384" width="10.83203125" style="42"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="43" t="s">
         <v>81</v>
       </c>
-      <c r="E1" s="44" t="s">
+      <c r="E1" s="43" t="s">
         <v>83</v>
       </c>
-      <c r="G1" s="44" t="s">
+      <c r="G1" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="I1" s="27" t="s">
+      <c r="I1" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="J1" s="27" t="s">
+      <c r="J1" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="N1" s="48"/>
-      <c r="O1" s="25" t="s">
+      <c r="N1" s="47"/>
+      <c r="O1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="46" t="s">
+      <c r="P1" s="45" t="s">
         <v>73</v>
       </c>
-      <c r="Q1" s="46" t="s">
+      <c r="Q1" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="R1" s="46" t="s">
+      <c r="R1" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="S1" s="46" t="s">
+      <c r="S1" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="T1" s="46" t="s">
+      <c r="T1" s="45" t="s">
         <v>77</v>
       </c>
-      <c r="AB1" s="46"/>
-      <c r="AC1" s="46"/>
-      <c r="AD1" s="45"/>
-      <c r="AE1" s="45"/>
-      <c r="AF1" s="32"/>
-      <c r="AG1" s="32"/>
-      <c r="AH1" s="32"/>
-      <c r="AI1" s="45"/>
-      <c r="AJ1" s="32"/>
-      <c r="AK1" s="32"/>
+      <c r="AB1" s="45"/>
+      <c r="AC1" s="45"/>
+      <c r="AD1" s="44"/>
+      <c r="AE1" s="44"/>
+      <c r="AF1" s="31"/>
+      <c r="AG1" s="31"/>
+      <c r="AH1" s="31"/>
+      <c r="AI1" s="44"/>
+      <c r="AJ1" s="31"/>
+      <c r="AK1" s="31"/>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="B2" s="26">
+      <c r="B2" s="25">
         <f>O2</f>
         <v>8592</v>
       </c>
-      <c r="C2" s="27">
+      <c r="C2" s="26">
         <f>P2</f>
         <v>0.243701096166868</v>
       </c>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27">
+      <c r="D2" s="26"/>
+      <c r="E2" s="26">
         <f>Q2</f>
         <v>0.41581397494618</v>
       </c>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27">
+      <c r="F2" s="26"/>
+      <c r="G2" s="26">
         <f>R2</f>
         <v>0.86683383979430895</v>
       </c>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27">
+      <c r="H2" s="26"/>
+      <c r="I2" s="26">
         <f>S2</f>
         <v>0.237610490086409</v>
       </c>
-      <c r="J2" s="27">
+      <c r="J2" s="26">
         <f t="shared" ref="J2" si="0">T2</f>
         <v>0.25003867631154703</v>
       </c>
-      <c r="K2" s="45"/>
-      <c r="O2" s="46">
+      <c r="K2" s="44"/>
+      <c r="O2" s="45">
         <v>8592</v>
       </c>
-      <c r="P2" s="46">
+      <c r="P2" s="45">
         <v>0.243701096166868</v>
       </c>
-      <c r="Q2" s="46">
+      <c r="Q2" s="45">
         <v>0.41581397494618</v>
       </c>
-      <c r="R2" s="46">
+      <c r="R2" s="45">
         <v>0.86683383979430895</v>
       </c>
-      <c r="S2" s="46">
+      <c r="S2" s="45">
         <v>0.237610490086409</v>
       </c>
-      <c r="T2" s="46">
+      <c r="T2" s="45">
         <v>0.25003867631154703</v>
       </c>
-      <c r="AB2" s="46"/>
-      <c r="AC2" s="46"/>
-      <c r="AD2" s="45"/>
-      <c r="AE2" s="45"/>
-      <c r="AF2" s="32"/>
-      <c r="AG2" s="32"/>
-      <c r="AH2" s="32"/>
-      <c r="AI2" s="45"/>
-      <c r="AJ2" s="32"/>
-      <c r="AK2" s="32"/>
-    </row>
-    <row r="3" spans="1:37" s="32" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="28"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29">
+      <c r="AB2" s="45"/>
+      <c r="AC2" s="45"/>
+      <c r="AD2" s="44"/>
+      <c r="AE2" s="44"/>
+      <c r="AF2" s="31"/>
+      <c r="AG2" s="31"/>
+      <c r="AH2" s="31"/>
+      <c r="AI2" s="44"/>
+      <c r="AJ2" s="31"/>
+      <c r="AK2" s="31"/>
+    </row>
+    <row r="3" spans="1:37" s="31" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="27"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28">
         <f>(1+$C2)/(1+E2)</f>
         <v>0.87843538641024177</v>
       </c>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29">
+      <c r="F3" s="28"/>
+      <c r="G3" s="28">
         <f t="shared" ref="G3:J3" si="1">(1+$C2)/(1+G2)</f>
         <v>0.66620878069357325</v>
       </c>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29">
+      <c r="H3" s="28"/>
+      <c r="I3" s="28">
         <f t="shared" si="1"/>
         <v>1.0049212624886801</v>
       </c>
-      <c r="J3" s="29">
+      <c r="J3" s="28">
         <f t="shared" si="1"/>
         <v>0.99493009275250655</v>
       </c>
-      <c r="K3" s="30"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="46"/>
-      <c r="O3" s="33">
+      <c r="K3" s="29"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="45"/>
+      <c r="O3" s="32">
         <v>118</v>
       </c>
-      <c r="P3" s="33">
+      <c r="P3" s="32">
         <v>1.2268520560359599</v>
       </c>
-      <c r="Q3" s="33">
+      <c r="Q3" s="32">
         <v>0.36009200648233602</v>
       </c>
-      <c r="R3" s="33">
+      <c r="R3" s="32">
         <v>0.95280231790298797</v>
       </c>
-      <c r="S3" s="33">
+      <c r="S3" s="32">
         <v>0.66442779039311795</v>
       </c>
-      <c r="T3" s="33">
+      <c r="T3" s="32">
         <v>0.59741239224446896</v>
       </c>
-      <c r="U3" s="33"/>
-      <c r="V3" s="34"/>
-      <c r="W3" s="34"/>
-      <c r="X3" s="33"/>
-      <c r="Y3" s="34"/>
-      <c r="AB3" s="46"/>
-      <c r="AC3" s="46"/>
-      <c r="AD3" s="46"/>
-      <c r="AE3" s="46"/>
-      <c r="AI3" s="46"/>
+      <c r="U3" s="32"/>
+      <c r="V3" s="33"/>
+      <c r="W3" s="33"/>
+      <c r="X3" s="32"/>
+      <c r="Y3" s="33"/>
+      <c r="AB3" s="45"/>
+      <c r="AC3" s="45"/>
+      <c r="AD3" s="45"/>
+      <c r="AE3" s="45"/>
+      <c r="AI3" s="45"/>
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="B4" s="26">
+      <c r="B4" s="25">
         <f>O3</f>
         <v>118</v>
       </c>
-      <c r="C4" s="36">
+      <c r="C4" s="35">
         <f>P3</f>
         <v>1.2268520560359599</v>
       </c>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36">
+      <c r="D4" s="35"/>
+      <c r="E4" s="35">
         <f>Q3</f>
         <v>0.36009200648233602</v>
       </c>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36">
+      <c r="F4" s="35"/>
+      <c r="G4" s="35">
         <f>R3</f>
         <v>0.95280231790298797</v>
       </c>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36">
+      <c r="H4" s="35"/>
+      <c r="I4" s="35">
         <f>S3</f>
         <v>0.66442779039311795</v>
       </c>
-      <c r="J4" s="36">
+      <c r="J4" s="35">
         <f t="shared" ref="J4" si="2">T3</f>
         <v>0.59741239224446896</v>
       </c>
-      <c r="K4" s="37"/>
-      <c r="L4" s="31"/>
-      <c r="O4" s="33">
+      <c r="K4" s="36"/>
+      <c r="L4" s="30"/>
+      <c r="O4" s="32">
         <v>2332</v>
       </c>
-      <c r="P4" s="33">
+      <c r="P4" s="32">
         <v>0.26741022994223901</v>
       </c>
-      <c r="Q4" s="33">
+      <c r="Q4" s="32">
         <v>0.45315060231828402</v>
       </c>
-      <c r="R4" s="33">
+      <c r="R4" s="32">
         <v>0.486073748812966</v>
       </c>
-      <c r="S4" s="33">
+      <c r="S4" s="32">
         <v>0.10424847514983999</v>
       </c>
-      <c r="T4" s="33">
+      <c r="T4" s="32">
         <v>9.1731083800245902E-2</v>
       </c>
-      <c r="U4" s="38"/>
-      <c r="V4" s="34"/>
-      <c r="W4" s="34"/>
-      <c r="X4" s="38"/>
-      <c r="Y4" s="34"/>
-      <c r="AB4" s="46"/>
-      <c r="AC4" s="46"/>
-      <c r="AD4" s="45"/>
-      <c r="AE4" s="45"/>
-      <c r="AF4" s="32"/>
-      <c r="AG4" s="32"/>
-      <c r="AH4" s="32"/>
-      <c r="AI4" s="45"/>
-      <c r="AJ4" s="32"/>
-      <c r="AK4" s="32"/>
+      <c r="U4" s="37"/>
+      <c r="V4" s="33"/>
+      <c r="W4" s="33"/>
+      <c r="X4" s="37"/>
+      <c r="Y4" s="33"/>
+      <c r="AB4" s="45"/>
+      <c r="AC4" s="45"/>
+      <c r="AD4" s="44"/>
+      <c r="AE4" s="44"/>
+      <c r="AF4" s="31"/>
+      <c r="AG4" s="31"/>
+      <c r="AH4" s="31"/>
+      <c r="AI4" s="44"/>
+      <c r="AJ4" s="31"/>
+      <c r="AK4" s="31"/>
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="29">
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="28">
         <f>(1+$C4)/(1+E4)</f>
         <v>1.6372804526624358</v>
       </c>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29">
+      <c r="F5" s="28"/>
+      <c r="G5" s="28">
         <f t="shared" ref="G5:J5" si="3">(1+$C4)/(1+G4)</f>
         <v>1.1403366513960611</v>
       </c>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29">
+      <c r="H5" s="28"/>
+      <c r="I5" s="28">
         <f t="shared" si="3"/>
         <v>1.3379084805535506</v>
       </c>
-      <c r="J5" s="29">
+      <c r="J5" s="28">
         <f t="shared" si="3"/>
         <v>1.3940370481958557</v>
       </c>
-      <c r="K5" s="37"/>
-      <c r="L5" s="31"/>
-      <c r="O5" s="33">
+      <c r="K5" s="36"/>
+      <c r="L5" s="30"/>
+      <c r="O5" s="32">
         <v>4356</v>
       </c>
-      <c r="P5" s="33">
+      <c r="P5" s="32">
         <v>0.279073022279271</v>
       </c>
-      <c r="Q5" s="33">
+      <c r="Q5" s="32">
         <v>0.521621080318448</v>
       </c>
-      <c r="R5" s="33">
+      <c r="R5" s="32">
         <v>1.25823847483304</v>
       </c>
-      <c r="S5" s="33">
+      <c r="S5" s="32">
         <v>0.33410770651823901</v>
       </c>
-      <c r="T5" s="33">
+      <c r="T5" s="32">
         <v>0.35255068426428499</v>
       </c>
-      <c r="U5" s="38"/>
-      <c r="V5" s="34"/>
-      <c r="W5" s="34"/>
-      <c r="X5" s="38"/>
-      <c r="Y5" s="34"/>
-      <c r="AB5" s="46"/>
-      <c r="AC5" s="46"/>
-      <c r="AD5" s="45"/>
-      <c r="AE5" s="45"/>
-      <c r="AF5" s="32"/>
-      <c r="AG5" s="32"/>
-      <c r="AH5" s="32"/>
-      <c r="AI5" s="45"/>
-      <c r="AJ5" s="32"/>
-      <c r="AK5" s="32"/>
+      <c r="U5" s="37"/>
+      <c r="V5" s="33"/>
+      <c r="W5" s="33"/>
+      <c r="X5" s="37"/>
+      <c r="Y5" s="33"/>
+      <c r="AB5" s="45"/>
+      <c r="AC5" s="45"/>
+      <c r="AD5" s="44"/>
+      <c r="AE5" s="44"/>
+      <c r="AF5" s="31"/>
+      <c r="AG5" s="31"/>
+      <c r="AH5" s="31"/>
+      <c r="AI5" s="44"/>
+      <c r="AJ5" s="31"/>
+      <c r="AK5" s="31"/>
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="B6" s="26">
+      <c r="B6" s="25">
         <f>O4</f>
         <v>2332</v>
       </c>
-      <c r="C6" s="27">
+      <c r="C6" s="26">
         <f>P4</f>
         <v>0.26741022994223901</v>
       </c>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27">
+      <c r="D6" s="26"/>
+      <c r="E6" s="26">
         <f>Q4</f>
         <v>0.45315060231828402</v>
       </c>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27">
+      <c r="F6" s="26"/>
+      <c r="G6" s="26">
         <f>R4</f>
         <v>0.486073748812966</v>
       </c>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27">
+      <c r="H6" s="26"/>
+      <c r="I6" s="26">
         <f>S4</f>
         <v>0.10424847514983999</v>
       </c>
-      <c r="J6" s="27">
+      <c r="J6" s="26">
         <f t="shared" ref="J6" si="4">T4</f>
         <v>9.1731083800245902E-2</v>
       </c>
-      <c r="K6" s="37"/>
-      <c r="L6" s="31"/>
-      <c r="O6" s="33">
+      <c r="K6" s="36"/>
+      <c r="L6" s="30"/>
+      <c r="O6" s="32">
         <v>1786</v>
       </c>
-      <c r="P6" s="33">
+      <c r="P6" s="32">
         <v>6.15165366067622E-2</v>
       </c>
-      <c r="Q6" s="33">
+      <c r="Q6" s="32">
         <v>0.112684314389285</v>
       </c>
-      <c r="R6" s="33">
+      <c r="R6" s="32">
         <v>0.40369255285306199</v>
       </c>
-      <c r="S6" s="33">
+      <c r="S6" s="32">
         <v>0.148189382930102</v>
       </c>
-      <c r="T6" s="33">
+      <c r="T6" s="32">
         <v>0.18376818393424499</v>
       </c>
-      <c r="U6" s="38"/>
-      <c r="V6" s="34"/>
-      <c r="W6" s="34"/>
-      <c r="X6" s="38"/>
-      <c r="Y6" s="34"/>
-      <c r="AB6" s="46"/>
-      <c r="AC6" s="46"/>
-      <c r="AD6" s="45"/>
-      <c r="AE6" s="45"/>
-      <c r="AF6" s="32"/>
-      <c r="AG6" s="32"/>
-      <c r="AH6" s="32"/>
-      <c r="AI6" s="45"/>
-      <c r="AJ6" s="32"/>
-      <c r="AK6" s="32"/>
+      <c r="U6" s="37"/>
+      <c r="V6" s="33"/>
+      <c r="W6" s="33"/>
+      <c r="X6" s="37"/>
+      <c r="Y6" s="33"/>
+      <c r="AB6" s="45"/>
+      <c r="AC6" s="45"/>
+      <c r="AD6" s="44"/>
+      <c r="AE6" s="44"/>
+      <c r="AF6" s="31"/>
+      <c r="AG6" s="31"/>
+      <c r="AH6" s="31"/>
+      <c r="AI6" s="44"/>
+      <c r="AJ6" s="31"/>
+      <c r="AK6" s="31"/>
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="B7" s="26"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="29">
+      <c r="B7" s="25"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="28">
         <f>(1+$C6)/(1+E6)</f>
         <v>0.87218092049115614</v>
       </c>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29">
+      <c r="F7" s="28"/>
+      <c r="G7" s="28">
         <f t="shared" ref="G7:J7" si="5">(1+$C6)/(1+G6)</f>
         <v>0.85285823193809229</v>
       </c>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29">
+      <c r="H7" s="28"/>
+      <c r="I7" s="28">
         <f t="shared" si="5"/>
         <v>1.1477581889078532</v>
       </c>
-      <c r="J7" s="29">
+      <c r="J7" s="28">
         <f t="shared" si="5"/>
         <v>1.1609179666575631</v>
       </c>
-      <c r="K7" s="37"/>
-      <c r="L7" s="31"/>
-      <c r="O7" s="33"/>
-      <c r="P7" s="33"/>
-      <c r="Q7" s="33"/>
-      <c r="R7" s="33"/>
-      <c r="S7" s="33"/>
-      <c r="T7" s="33"/>
-      <c r="U7" s="38"/>
-      <c r="V7" s="34"/>
-      <c r="W7" s="34"/>
-      <c r="X7" s="38"/>
-      <c r="Y7" s="34"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="30"/>
+      <c r="O7" s="32"/>
+      <c r="P7" s="32"/>
+      <c r="Q7" s="32"/>
+      <c r="R7" s="32"/>
+      <c r="S7" s="32"/>
+      <c r="T7" s="32"/>
+      <c r="U7" s="37"/>
+      <c r="V7" s="33"/>
+      <c r="W7" s="33"/>
+      <c r="X7" s="37"/>
+      <c r="Y7" s="33"/>
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="B8" s="26">
+      <c r="B8" s="25">
         <f>O5</f>
         <v>4356</v>
       </c>
-      <c r="C8" s="27">
+      <c r="C8" s="26">
         <f>P5</f>
         <v>0.279073022279271</v>
       </c>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27">
+      <c r="D8" s="26"/>
+      <c r="E8" s="26">
         <f>Q5</f>
         <v>0.521621080318448</v>
       </c>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27">
+      <c r="F8" s="26"/>
+      <c r="G8" s="26">
         <f>R5</f>
         <v>1.25823847483304</v>
       </c>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27">
+      <c r="H8" s="26"/>
+      <c r="I8" s="26">
         <f>S5</f>
         <v>0.33410770651823901</v>
       </c>
-      <c r="J8" s="27">
+      <c r="J8" s="26">
         <f t="shared" ref="J8" si="6">T5</f>
         <v>0.35255068426428499</v>
       </c>
-      <c r="K8" s="37"/>
-      <c r="L8" s="31"/>
-      <c r="O8" s="41"/>
-      <c r="P8" s="38"/>
-      <c r="Q8" s="41"/>
-      <c r="R8" s="38"/>
-      <c r="S8" s="33"/>
-      <c r="T8" s="33"/>
-      <c r="U8" s="38"/>
-      <c r="V8" s="34"/>
-      <c r="W8" s="34"/>
-      <c r="X8" s="38"/>
-      <c r="Y8" s="34"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="30"/>
+      <c r="O8" s="40"/>
+      <c r="P8" s="37"/>
+      <c r="Q8" s="40"/>
+      <c r="R8" s="37"/>
+      <c r="S8" s="32"/>
+      <c r="T8" s="32"/>
+      <c r="U8" s="37"/>
+      <c r="V8" s="33"/>
+      <c r="W8" s="33"/>
+      <c r="X8" s="37"/>
+      <c r="Y8" s="33"/>
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="29">
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="28">
         <f>(1+$C8)/(1+E8)</f>
         <v>0.84059891048012025</v>
       </c>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29">
+      <c r="F9" s="28"/>
+      <c r="G9" s="28">
         <f t="shared" ref="G9:J9" si="7">(1+$C8)/(1+G8)</f>
         <v>0.5664029891147071</v>
       </c>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29">
+      <c r="H9" s="28"/>
+      <c r="I9" s="28">
         <f t="shared" si="7"/>
         <v>0.95874794518457751</v>
       </c>
-      <c r="J9" s="29">
+      <c r="J9" s="28">
         <f t="shared" si="7"/>
         <v>0.94567474414093267</v>
       </c>
-      <c r="K9" s="37"/>
-      <c r="L9" s="31"/>
-      <c r="O9" s="41"/>
-      <c r="P9" s="38"/>
-      <c r="Q9" s="41"/>
-      <c r="R9" s="38"/>
-      <c r="S9" s="33"/>
-      <c r="T9" s="33"/>
-      <c r="U9" s="38"/>
-      <c r="V9" s="34"/>
-      <c r="W9" s="34"/>
-      <c r="X9" s="38"/>
-      <c r="Y9" s="34"/>
+      <c r="K9" s="36"/>
+      <c r="L9" s="30"/>
+      <c r="O9" s="40"/>
+      <c r="P9" s="37"/>
+      <c r="Q9" s="40"/>
+      <c r="R9" s="37"/>
+      <c r="S9" s="32"/>
+      <c r="T9" s="32"/>
+      <c r="U9" s="37"/>
+      <c r="V9" s="33"/>
+      <c r="W9" s="33"/>
+      <c r="X9" s="37"/>
+      <c r="Y9" s="33"/>
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="A10" s="35" t="s">
+      <c r="A10" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="B10" s="26">
+      <c r="B10" s="25">
         <f>O6</f>
         <v>1786</v>
       </c>
-      <c r="C10" s="27">
+      <c r="C10" s="26">
         <f>P6</f>
         <v>6.15165366067622E-2</v>
       </c>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27">
+      <c r="D10" s="26"/>
+      <c r="E10" s="26">
         <f>Q6</f>
         <v>0.112684314389285</v>
       </c>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27">
+      <c r="F10" s="26"/>
+      <c r="G10" s="26">
         <f>R6</f>
         <v>0.40369255285306199</v>
       </c>
-      <c r="H10" s="27"/>
-      <c r="I10" s="27">
+      <c r="H10" s="26"/>
+      <c r="I10" s="26">
         <f>S6</f>
         <v>0.148189382930102</v>
       </c>
-      <c r="J10" s="27">
+      <c r="J10" s="26">
         <f t="shared" ref="J10" si="8">T6</f>
         <v>0.18376818393424499</v>
       </c>
-      <c r="K10" s="37"/>
-      <c r="L10" s="31"/>
-      <c r="O10" s="41"/>
-      <c r="P10" s="38"/>
-      <c r="Q10" s="41"/>
-      <c r="R10" s="38"/>
-      <c r="S10" s="33"/>
-      <c r="T10" s="33"/>
-      <c r="U10" s="38"/>
-      <c r="V10" s="34"/>
-      <c r="W10" s="34"/>
-      <c r="X10" s="38"/>
-      <c r="Y10" s="34"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="30"/>
+      <c r="O10" s="40"/>
+      <c r="P10" s="37"/>
+      <c r="Q10" s="40"/>
+      <c r="R10" s="37"/>
+      <c r="S10" s="32"/>
+      <c r="T10" s="32"/>
+      <c r="U10" s="37"/>
+      <c r="V10" s="33"/>
+      <c r="W10" s="33"/>
+      <c r="X10" s="37"/>
+      <c r="Y10" s="33"/>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="A11" s="35"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="29">
+      <c r="A11" s="34"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="28">
         <f>(1+$C10)/(1+E10)</f>
         <v>0.95401411063244201</v>
       </c>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29">
+      <c r="F11" s="28"/>
+      <c r="G11" s="28">
         <f t="shared" ref="G11:J11" si="9">(1+$C10)/(1+G10)</f>
         <v>0.7562315084233987</v>
       </c>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29">
+      <c r="H11" s="28"/>
+      <c r="I11" s="28">
         <f t="shared" si="9"/>
         <v>0.92451345778676641</v>
       </c>
-      <c r="J11" s="29">
+      <c r="J11" s="28">
         <f t="shared" si="9"/>
         <v>0.8967266995458687</v>
       </c>
-      <c r="K11" s="37"/>
-      <c r="L11" s="31"/>
-      <c r="O11" s="41"/>
-      <c r="P11" s="38"/>
-      <c r="Q11" s="41"/>
-      <c r="R11" s="38"/>
-      <c r="S11" s="33"/>
-      <c r="T11" s="33"/>
-      <c r="U11" s="38"/>
-      <c r="V11" s="34"/>
-      <c r="W11" s="34"/>
-      <c r="X11" s="38"/>
-      <c r="Y11" s="34"/>
+      <c r="K11" s="36"/>
+      <c r="L11" s="30"/>
+      <c r="O11" s="40"/>
+      <c r="P11" s="37"/>
+      <c r="Q11" s="40"/>
+      <c r="R11" s="37"/>
+      <c r="S11" s="32"/>
+      <c r="T11" s="32"/>
+      <c r="U11" s="37"/>
+      <c r="V11" s="33"/>
+      <c r="W11" s="33"/>
+      <c r="X11" s="37"/>
+      <c r="Y11" s="33"/>
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="45"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="44"/>
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="A13" s="47" t="s">
+      <c r="A13" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="B13" s="39" t="s">
+      <c r="B13" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="C13" s="44" t="s">
+      <c r="C13" s="43" t="s">
         <v>81</v>
       </c>
-      <c r="E13" s="44" t="s">
+      <c r="E13" s="43" t="s">
         <v>83</v>
       </c>
-      <c r="G13" s="44" t="s">
+      <c r="G13" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="I13" s="27" t="s">
+      <c r="I13" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="J13" s="43"/>
-      <c r="K13" s="27" t="s">
+      <c r="J13" s="42"/>
+      <c r="K13" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="N13" s="49"/>
-      <c r="O13" s="45" t="s">
+      <c r="N13" s="48"/>
+      <c r="O13" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="P13" s="42" t="s">
+      <c r="P13" s="41" t="s">
         <v>87</v>
       </c>
-      <c r="Q13" s="45" t="s">
+      <c r="Q13" s="44" t="s">
         <v>88</v>
       </c>
-      <c r="R13" s="42" t="s">
+      <c r="R13" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="S13" s="46" t="s">
+      <c r="S13" s="45" t="s">
         <v>90</v>
       </c>
-      <c r="T13" s="46" t="s">
+      <c r="T13" s="45" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="A14" s="43" t="s">
+      <c r="A14" s="42" t="s">
         <v>78</v>
       </c>
-      <c r="B14" s="26">
+      <c r="B14" s="25">
         <f>O14</f>
         <v>8313</v>
       </c>
-      <c r="C14" s="27">
+      <c r="C14" s="26">
         <f t="shared" ref="C14" si="10">P14</f>
         <v>0.38520454946947602</v>
       </c>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27">
+      <c r="D14" s="26"/>
+      <c r="E14" s="26">
         <f t="shared" ref="E14" si="11">Q14</f>
         <v>0.67314492149523397</v>
       </c>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27">
+      <c r="F14" s="26"/>
+      <c r="G14" s="26">
         <f t="shared" ref="G14" si="12">R14</f>
         <v>1.72231361069961</v>
       </c>
-      <c r="H14" s="27"/>
-      <c r="I14" s="27">
+      <c r="H14" s="26"/>
+      <c r="I14" s="26">
         <f t="shared" ref="I14" si="13">S14</f>
         <v>0.41880398572337901</v>
       </c>
-      <c r="J14" s="43"/>
-      <c r="K14" s="27">
+      <c r="J14" s="42"/>
+      <c r="K14" s="26">
         <f>T14</f>
         <v>0.454001806702092</v>
       </c>
-      <c r="O14" s="45">
+      <c r="O14" s="44">
         <v>8313</v>
       </c>
-      <c r="P14" s="42">
+      <c r="P14" s="41">
         <v>0.38520454946947602</v>
       </c>
-      <c r="Q14" s="45">
+      <c r="Q14" s="44">
         <v>0.67314492149523397</v>
       </c>
-      <c r="R14" s="42">
+      <c r="R14" s="41">
         <v>1.72231361069961</v>
       </c>
-      <c r="S14" s="46">
+      <c r="S14" s="45">
         <v>0.41880398572337901</v>
       </c>
-      <c r="T14" s="46">
+      <c r="T14" s="45">
         <v>0.454001806702092</v>
       </c>
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="A15" s="32"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29">
+      <c r="A15" s="31"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28">
         <f>(1+$C14)/(1+E14)</f>
         <v>0.82790470309742492</v>
       </c>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29">
+      <c r="F15" s="28"/>
+      <c r="G15" s="28">
         <f t="shared" ref="G15" si="14">(1+$C14)/(1+G14)</f>
         <v>0.50883356863263496</v>
       </c>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29">
+      <c r="H15" s="28"/>
+      <c r="I15" s="28">
         <f t="shared" ref="I15" si="15">(1+$C14)/(1+I14)</f>
         <v>0.97631847909084335</v>
       </c>
-      <c r="J15" s="43"/>
-      <c r="K15" s="29">
+      <c r="J15" s="42"/>
+      <c r="K15" s="28">
         <f>(1+$C14)/(1+K14)</f>
         <v>0.95268420099926887</v>
       </c>
-      <c r="L15" s="34"/>
-      <c r="N15" s="43"/>
-      <c r="O15" s="45">
+      <c r="L15" s="33"/>
+      <c r="N15" s="42"/>
+      <c r="O15" s="44">
         <v>118</v>
       </c>
-      <c r="P15" s="42">
+      <c r="P15" s="41">
         <v>1.96190626394332</v>
       </c>
-      <c r="Q15" s="42">
+      <c r="Q15" s="41">
         <v>0.77564044674485599</v>
       </c>
-      <c r="R15" s="42">
+      <c r="R15" s="41">
         <v>1.9984491174803301</v>
       </c>
-      <c r="S15" s="32">
+      <c r="S15" s="31">
         <v>1.2961282202372799</v>
       </c>
-      <c r="T15" s="32">
+      <c r="T15" s="31">
         <v>1.1796937054349601</v>
       </c>
     </row>
     <row r="16" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="A16" s="35" t="s">
+      <c r="A16" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="B16" s="26">
+      <c r="B16" s="25">
         <f>O15</f>
         <v>118</v>
       </c>
-      <c r="C16" s="36">
+      <c r="C16" s="35">
         <f t="shared" ref="C16" si="16">P15</f>
         <v>1.96190626394332</v>
       </c>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36">
+      <c r="D16" s="35"/>
+      <c r="E16" s="35">
         <f t="shared" ref="E16" si="17">Q15</f>
         <v>0.77564044674485599</v>
       </c>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36">
+      <c r="F16" s="35"/>
+      <c r="G16" s="35">
         <f t="shared" ref="G16" si="18">R15</f>
         <v>1.9984491174803301</v>
       </c>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36">
+      <c r="H16" s="35"/>
+      <c r="I16" s="35">
         <f t="shared" ref="I16" si="19">S15</f>
         <v>1.2961282202372799</v>
       </c>
-      <c r="J16" s="43"/>
-      <c r="K16" s="36">
+      <c r="J16" s="42"/>
+      <c r="K16" s="35">
         <f>T15</f>
         <v>1.1796937054349601</v>
       </c>
-      <c r="L16" s="34"/>
-      <c r="O16" s="41">
+      <c r="L16" s="33"/>
+      <c r="O16" s="40">
         <v>2332</v>
       </c>
-      <c r="P16" s="38">
+      <c r="P16" s="37">
         <v>0.352557862902171</v>
       </c>
-      <c r="Q16" s="41">
+      <c r="Q16" s="40">
         <v>0.73942092488773403</v>
       </c>
-      <c r="R16" s="38">
+      <c r="R16" s="37">
         <v>1.11534667552958</v>
       </c>
-      <c r="S16" s="32">
+      <c r="S16" s="31">
         <v>0.17182625282181499</v>
       </c>
-      <c r="T16" s="33">
+      <c r="T16" s="32">
         <v>0.164940695898985</v>
       </c>
-      <c r="U16" s="38"/>
-      <c r="W16" s="34"/>
-      <c r="X16" s="38"/>
+      <c r="U16" s="37"/>
+      <c r="W16" s="33"/>
+      <c r="X16" s="37"/>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="29">
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="28">
         <f>(1+$C16)/(1+E16)</f>
         <v>1.6680777177458159</v>
       </c>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29">
+      <c r="F17" s="28"/>
+      <c r="G17" s="28">
         <f t="shared" ref="G17" si="20">(1+$C16)/(1+G16)</f>
         <v>0.98781274848921963</v>
       </c>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29">
+      <c r="H17" s="28"/>
+      <c r="I17" s="28">
         <f t="shared" ref="I17" si="21">(1+$C16)/(1+I16)</f>
         <v>1.2899568228978255</v>
       </c>
-      <c r="J17" s="43"/>
-      <c r="K17" s="29">
+      <c r="J17" s="42"/>
+      <c r="K17" s="28">
         <f>(1+$C16)/(1+K16)</f>
         <v>1.3588635213094165</v>
       </c>
-      <c r="L17" s="34"/>
-      <c r="N17" s="43"/>
-      <c r="O17" s="45">
+      <c r="L17" s="33"/>
+      <c r="N17" s="42"/>
+      <c r="O17" s="44">
         <v>4356</v>
       </c>
-      <c r="P17" s="42">
+      <c r="P17" s="41">
         <v>0.45679552865025502</v>
       </c>
-      <c r="Q17" s="42">
+      <c r="Q17" s="41">
         <v>0.80964910860743</v>
       </c>
-      <c r="R17" s="42">
+      <c r="R17" s="41">
         <v>2.3698929297037798</v>
       </c>
-      <c r="S17" s="32">
+      <c r="S17" s="31">
         <v>0.58065078435072903</v>
       </c>
-      <c r="T17" s="32">
+      <c r="T17" s="31">
         <v>0.63783857811331302</v>
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A18" s="35" t="s">
+      <c r="A18" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="B18" s="26">
+      <c r="B18" s="25">
         <f>O16</f>
         <v>2332</v>
       </c>
-      <c r="C18" s="27">
+      <c r="C18" s="26">
         <f t="shared" ref="C18" si="22">P16</f>
         <v>0.352557862902171</v>
       </c>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27">
+      <c r="D18" s="26"/>
+      <c r="E18" s="26">
         <f t="shared" ref="E18" si="23">Q16</f>
         <v>0.73942092488773403</v>
       </c>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27">
+      <c r="F18" s="26"/>
+      <c r="G18" s="26">
         <f t="shared" ref="G18" si="24">R16</f>
         <v>1.11534667552958</v>
       </c>
-      <c r="H18" s="27"/>
-      <c r="I18" s="27">
+      <c r="H18" s="26"/>
+      <c r="I18" s="26">
         <f t="shared" ref="I18" si="25">S16</f>
         <v>0.17182625282181499</v>
       </c>
-      <c r="J18" s="43"/>
-      <c r="K18" s="27">
+      <c r="J18" s="42"/>
+      <c r="K18" s="26">
         <f>T16</f>
         <v>0.164940695898985</v>
       </c>
-      <c r="L18" s="34"/>
-      <c r="O18" s="41">
+      <c r="L18" s="33"/>
+      <c r="O18" s="40">
         <v>1507</v>
       </c>
-      <c r="P18" s="38">
+      <c r="P18" s="37">
         <v>0.10533126841809699</v>
       </c>
-      <c r="Q18" s="41">
+      <c r="Q18" s="40">
         <v>0.167994058222842</v>
       </c>
-      <c r="R18" s="38">
+      <c r="R18" s="37">
         <v>0.76810484456437</v>
       </c>
-      <c r="S18" s="32">
+      <c r="S18" s="31">
         <v>0.26447296955421401</v>
       </c>
-      <c r="T18" s="33">
+      <c r="T18" s="32">
         <v>0.31310325997023403</v>
       </c>
-      <c r="U18" s="38"/>
-      <c r="W18" s="34"/>
-      <c r="X18" s="38"/>
+      <c r="U18" s="37"/>
+      <c r="W18" s="33"/>
+      <c r="X18" s="37"/>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="B19" s="26"/>
-      <c r="C19" s="40"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="29">
+      <c r="B19" s="25"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="28">
         <f>(1+$C18)/(1+E18)</f>
         <v>0.77759088875481253</v>
       </c>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29">
+      <c r="F19" s="28"/>
+      <c r="G19" s="28">
         <f t="shared" ref="G19" si="26">(1+$C18)/(1+G18)</f>
         <v>0.63940245754921299</v>
       </c>
-      <c r="H19" s="29"/>
-      <c r="I19" s="29">
+      <c r="H19" s="28"/>
+      <c r="I19" s="28">
         <f t="shared" ref="I19" si="27">(1+$C18)/(1+I18)</f>
         <v>1.1542307228952633</v>
       </c>
-      <c r="J19" s="43"/>
-      <c r="K19" s="29">
+      <c r="J19" s="42"/>
+      <c r="K19" s="28">
         <f>(1+$C18)/(1+K18)</f>
         <v>1.161052976914333</v>
       </c>
-      <c r="L19" s="34"/>
-      <c r="N19" s="43"/>
-      <c r="Q19" s="42"/>
-      <c r="S19" s="32"/>
-      <c r="T19" s="32"/>
+      <c r="L19" s="33"/>
+      <c r="N19" s="42"/>
+      <c r="Q19" s="41"/>
+      <c r="S19" s="31"/>
+      <c r="T19" s="31"/>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A20" s="35" t="s">
+      <c r="A20" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="B20" s="26">
+      <c r="B20" s="25">
         <f>O17</f>
         <v>4356</v>
       </c>
-      <c r="C20" s="27">
+      <c r="C20" s="26">
         <f t="shared" ref="C20" si="28">P17</f>
         <v>0.45679552865025502</v>
       </c>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27">
+      <c r="D20" s="26"/>
+      <c r="E20" s="26">
         <f t="shared" ref="E20" si="29">Q17</f>
         <v>0.80964910860743</v>
       </c>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27">
+      <c r="F20" s="26"/>
+      <c r="G20" s="26">
         <f t="shared" ref="G20" si="30">R17</f>
         <v>2.3698929297037798</v>
       </c>
-      <c r="H20" s="27"/>
-      <c r="I20" s="27">
+      <c r="H20" s="26"/>
+      <c r="I20" s="26">
         <f t="shared" ref="I20" si="31">S17</f>
         <v>0.58065078435072903</v>
       </c>
-      <c r="J20" s="43"/>
-      <c r="K20" s="27">
+      <c r="J20" s="42"/>
+      <c r="K20" s="26">
         <f>T17</f>
         <v>0.63783857811331302</v>
       </c>
-      <c r="L20" s="34"/>
-      <c r="O20" s="41"/>
-      <c r="P20" s="38"/>
-      <c r="Q20" s="41"/>
-      <c r="R20" s="38"/>
-      <c r="S20" s="32"/>
-      <c r="T20" s="33"/>
-      <c r="U20" s="38"/>
-      <c r="W20" s="34"/>
-      <c r="X20" s="38"/>
+      <c r="L20" s="33"/>
+      <c r="O20" s="40"/>
+      <c r="P20" s="37"/>
+      <c r="Q20" s="40"/>
+      <c r="R20" s="37"/>
+      <c r="S20" s="31"/>
+      <c r="T20" s="32"/>
+      <c r="U20" s="37"/>
+      <c r="W20" s="33"/>
+      <c r="X20" s="37"/>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="29">
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="28">
         <f>(1+$C20)/(1+E20)</f>
         <v>0.80501547052472255</v>
       </c>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29">
+      <c r="F21" s="28"/>
+      <c r="G21" s="28">
         <f t="shared" ref="G21" si="32">(1+$C20)/(1+G20)</f>
         <v>0.43229727443545518</v>
       </c>
-      <c r="H21" s="29"/>
-      <c r="I21" s="29">
+      <c r="H21" s="28"/>
+      <c r="I21" s="28">
         <f t="shared" ref="I21" si="33">(1+$C20)/(1+I20)</f>
         <v>0.92164287208363405</v>
       </c>
-      <c r="J21" s="43"/>
-      <c r="K21" s="29">
+      <c r="J21" s="42"/>
+      <c r="K21" s="28">
         <f>(1+$C20)/(1+K20)</f>
         <v>0.88946221448049645</v>
       </c>
-      <c r="L21" s="34"/>
-      <c r="N21" s="43"/>
-      <c r="Q21" s="42"/>
-      <c r="S21" s="32"/>
-      <c r="T21" s="32"/>
+      <c r="L21" s="33"/>
+      <c r="N21" s="42"/>
+      <c r="Q21" s="41"/>
+      <c r="S21" s="31"/>
+      <c r="T21" s="31"/>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A22" s="35" t="s">
+      <c r="A22" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="B22" s="26">
+      <c r="B22" s="25">
         <f>O18</f>
         <v>1507</v>
       </c>
-      <c r="C22" s="27">
+      <c r="C22" s="26">
         <f t="shared" ref="C22" si="34">P18</f>
         <v>0.10533126841809699</v>
       </c>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27">
+      <c r="D22" s="26"/>
+      <c r="E22" s="26">
         <f t="shared" ref="E22" si="35">Q18</f>
         <v>0.167994058222842</v>
       </c>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27">
+      <c r="F22" s="26"/>
+      <c r="G22" s="26">
         <f t="shared" ref="G22" si="36">R18</f>
         <v>0.76810484456437</v>
       </c>
-      <c r="H22" s="27"/>
-      <c r="I22" s="27">
+      <c r="H22" s="26"/>
+      <c r="I22" s="26">
         <f t="shared" ref="I22" si="37">S18</f>
         <v>0.26447296955421401</v>
       </c>
-      <c r="J22" s="43"/>
-      <c r="K22" s="27">
+      <c r="J22" s="42"/>
+      <c r="K22" s="26">
         <f>T18</f>
         <v>0.31310325997023403</v>
       </c>
-      <c r="L22" s="34"/>
-      <c r="O22" s="41"/>
-      <c r="P22" s="38"/>
-      <c r="Q22" s="41"/>
-      <c r="R22" s="38"/>
-      <c r="S22" s="32"/>
-      <c r="T22" s="33"/>
-      <c r="U22" s="38"/>
-      <c r="W22" s="34"/>
-      <c r="X22" s="38"/>
+      <c r="L22" s="33"/>
+      <c r="O22" s="40"/>
+      <c r="P22" s="37"/>
+      <c r="Q22" s="40"/>
+      <c r="R22" s="37"/>
+      <c r="S22" s="31"/>
+      <c r="T22" s="32"/>
+      <c r="U22" s="37"/>
+      <c r="W22" s="33"/>
+      <c r="X22" s="37"/>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A23" s="35"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="29">
+      <c r="A23" s="34"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="28">
         <f>(1+$C22)/(1+E22)</f>
         <v>0.94635007827001316</v>
       </c>
-      <c r="F23" s="29"/>
-      <c r="G23" s="29">
+      <c r="F23" s="28"/>
+      <c r="G23" s="28">
         <f t="shared" ref="G23" si="38">(1+$C22)/(1+G22)</f>
         <v>0.62515029683685475</v>
       </c>
-      <c r="H23" s="29"/>
-      <c r="I23" s="29">
+      <c r="H23" s="28"/>
+      <c r="I23" s="28">
         <f t="shared" ref="I23" si="39">(1+$C22)/(1+I22)</f>
         <v>0.87414384888573615</v>
       </c>
-      <c r="J23" s="43"/>
-      <c r="K23" s="29">
+      <c r="J23" s="42"/>
+      <c r="K23" s="28">
         <f>(1+$C22)/(1+K22)</f>
         <v>0.84177025685181295</v>
       </c>
-      <c r="L23" s="34"/>
-      <c r="N23" s="43"/>
-      <c r="Q23" s="42"/>
-      <c r="S23" s="32"/>
-      <c r="T23" s="32"/>
+      <c r="L23" s="33"/>
+      <c r="N23" s="42"/>
+      <c r="Q23" s="41"/>
+      <c r="S23" s="31"/>
+      <c r="T23" s="31"/>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A25" s="47" t="s">
+      <c r="A25" s="46" t="s">
         <v>96</v>
       </c>
-      <c r="B25" s="39" t="s">
+      <c r="B25" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="C25" s="44" t="s">
+      <c r="C25" s="43" t="s">
         <v>81</v>
       </c>
-      <c r="E25" s="44" t="s">
+      <c r="E25" s="43" t="s">
         <v>97</v>
       </c>
-      <c r="G25" s="44" t="s">
+      <c r="G25" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="I25" s="44" t="s">
+      <c r="I25" s="43" t="s">
         <v>99</v>
       </c>
-      <c r="O25" s="45" t="s">
+      <c r="O25" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="P25" s="42" t="s">
+      <c r="P25" s="41" t="s">
         <v>73</v>
       </c>
-      <c r="Q25" s="45" t="s">
+      <c r="Q25" s="44" t="s">
         <v>93</v>
       </c>
-      <c r="R25" s="42" t="s">
+      <c r="R25" s="41" t="s">
         <v>94</v>
       </c>
-      <c r="S25" s="46" t="s">
+      <c r="S25" s="45" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A26" s="43" t="s">
+      <c r="A26" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="B26" s="26">
+      <c r="B26" s="25">
         <f>O26</f>
         <v>8592</v>
       </c>
-      <c r="C26" s="27">
+      <c r="C26" s="26">
         <f t="shared" ref="C26" si="40">P26</f>
         <v>0.243701096166868</v>
       </c>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27">
+      <c r="D26" s="26"/>
+      <c r="E26" s="26">
         <f t="shared" ref="E26" si="41">Q26</f>
         <v>0.331330833487123</v>
       </c>
-      <c r="F26" s="27"/>
-      <c r="G26" s="27">
+      <c r="F26" s="26"/>
+      <c r="G26" s="26">
         <f t="shared" ref="G26" si="42">R26</f>
         <v>0.33720093853882599</v>
       </c>
-      <c r="H26" s="27"/>
-      <c r="I26" s="27">
+      <c r="H26" s="26"/>
+      <c r="I26" s="26">
         <f t="shared" ref="I26" si="43">S26</f>
         <v>0.37435016074236299</v>
       </c>
-      <c r="O26" s="45">
+      <c r="O26" s="44">
         <v>8592</v>
       </c>
-      <c r="P26" s="42">
+      <c r="P26" s="41">
         <v>0.243701096166868</v>
       </c>
-      <c r="Q26" s="45">
+      <c r="Q26" s="44">
         <v>0.331330833487123</v>
       </c>
-      <c r="R26" s="42">
+      <c r="R26" s="41">
         <v>0.33720093853882599</v>
       </c>
-      <c r="S26" s="46">
+      <c r="S26" s="45">
         <v>0.37435016074236299</v>
       </c>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A27" s="32"/>
-      <c r="B27" s="28"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29">
+      <c r="A27" s="31"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28">
         <f>(1+$C26)/(1+E26)</f>
         <v>0.93417884186552747</v>
       </c>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29">
+      <c r="F27" s="28"/>
+      <c r="G27" s="28">
         <f t="shared" ref="G27" si="44">(1+$C26)/(1+G26)</f>
         <v>0.93007794140936939</v>
       </c>
-      <c r="H27" s="29"/>
-      <c r="I27" s="29">
+      <c r="H27" s="28"/>
+      <c r="I27" s="28">
         <f t="shared" ref="I27" si="45">(1+$C26)/(1+I26)</f>
         <v>0.90493757100088368</v>
       </c>
-      <c r="J27" s="29"/>
-      <c r="O27" s="45">
+      <c r="J27" s="28"/>
+      <c r="O27" s="44">
         <v>118</v>
       </c>
-      <c r="P27" s="42">
+      <c r="P27" s="41">
         <v>1.2268520560359599</v>
       </c>
-      <c r="Q27" s="45">
+      <c r="Q27" s="44">
         <v>0.94972930959875501</v>
       </c>
-      <c r="R27" s="42">
+      <c r="R27" s="41">
         <v>0.66462205820807696</v>
       </c>
-      <c r="S27" s="46">
+      <c r="S27" s="45">
         <v>0.92853977790961895</v>
       </c>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A28" s="35" t="s">
+      <c r="A28" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="B28" s="26">
+      <c r="B28" s="25">
         <f>O27</f>
         <v>118</v>
       </c>
-      <c r="C28" s="36">
+      <c r="C28" s="35">
         <f t="shared" ref="C28" si="46">P27</f>
         <v>1.2268520560359599</v>
       </c>
-      <c r="D28" s="36"/>
-      <c r="E28" s="36">
+      <c r="D28" s="35"/>
+      <c r="E28" s="35">
         <f t="shared" ref="E28" si="47">Q27</f>
         <v>0.94972930959875501</v>
       </c>
-      <c r="F28" s="36"/>
-      <c r="G28" s="36">
+      <c r="F28" s="35"/>
+      <c r="G28" s="35">
         <f t="shared" ref="G28" si="48">R27</f>
         <v>0.66462205820807696</v>
       </c>
-      <c r="H28" s="36"/>
-      <c r="I28" s="36">
+      <c r="H28" s="35"/>
+      <c r="I28" s="35">
         <f t="shared" ref="I28" si="49">S27</f>
         <v>0.92853977790961895</v>
       </c>
-      <c r="J28" s="36"/>
-      <c r="O28" s="45">
+      <c r="J28" s="35"/>
+      <c r="O28" s="44">
         <v>2332</v>
       </c>
-      <c r="P28" s="42">
+      <c r="P28" s="41">
         <v>0.26741022994223901</v>
       </c>
-      <c r="Q28" s="45">
+      <c r="Q28" s="44">
         <v>0.280735807076196</v>
       </c>
-      <c r="R28" s="42">
+      <c r="R28" s="41">
         <v>0.23214507229509401</v>
       </c>
-      <c r="S28" s="46">
+      <c r="S28" s="45">
         <v>0.27124144084756302</v>
       </c>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="C29" s="27"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="29">
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="28">
         <f>(1+$C28)/(1+E28)</f>
         <v>1.1421339593516371</v>
       </c>
-      <c r="F29" s="29"/>
-      <c r="G29" s="29">
+      <c r="F29" s="28"/>
+      <c r="G29" s="28">
         <f t="shared" ref="G29" si="50">(1+$C28)/(1+G28)</f>
         <v>1.3377523414733006</v>
       </c>
-      <c r="H29" s="29"/>
-      <c r="I29" s="29">
+      <c r="H29" s="28"/>
+      <c r="I29" s="28">
         <f t="shared" ref="I29" si="51">(1+$C28)/(1+I28)</f>
         <v>1.1546829790825923</v>
       </c>
-      <c r="J29" s="29"/>
-      <c r="O29" s="45">
+      <c r="J29" s="28"/>
+      <c r="O29" s="44">
         <v>4356</v>
       </c>
-      <c r="P29" s="42">
+      <c r="P29" s="41">
         <v>0.279073022279271</v>
       </c>
-      <c r="Q29" s="45">
+      <c r="Q29" s="44">
         <v>0.36947513514027602</v>
       </c>
-      <c r="R29" s="42">
+      <c r="R29" s="41">
         <v>0.41659284895329102</v>
       </c>
-      <c r="S29" s="46">
+      <c r="S29" s="45">
         <v>0.46422115019649801</v>
       </c>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A30" s="35" t="s">
+      <c r="A30" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="B30" s="26">
+      <c r="B30" s="25">
         <f>O28</f>
         <v>2332</v>
       </c>
-      <c r="C30" s="27">
+      <c r="C30" s="26">
         <f t="shared" ref="C30" si="52">P28</f>
         <v>0.26741022994223901</v>
       </c>
-      <c r="D30" s="27"/>
-      <c r="E30" s="27">
+      <c r="D30" s="26"/>
+      <c r="E30" s="26">
         <f t="shared" ref="E30" si="53">Q28</f>
         <v>0.280735807076196</v>
       </c>
-      <c r="F30" s="27"/>
-      <c r="G30" s="27">
+      <c r="F30" s="26"/>
+      <c r="G30" s="26">
         <f t="shared" ref="G30" si="54">R28</f>
         <v>0.23214507229509401</v>
       </c>
-      <c r="H30" s="27"/>
-      <c r="I30" s="27">
+      <c r="H30" s="26"/>
+      <c r="I30" s="26">
         <f t="shared" ref="I30" si="55">S28</f>
         <v>0.27124144084756302</v>
       </c>
-      <c r="O30" s="45">
+      <c r="O30" s="44">
         <v>1786</v>
       </c>
-      <c r="P30" s="42">
+      <c r="P30" s="41">
         <v>6.15165366067622E-2</v>
       </c>
-      <c r="Q30" s="45">
+      <c r="Q30" s="44">
         <v>0.25792135308095299</v>
       </c>
-      <c r="R30" s="42">
+      <c r="R30" s="41">
         <v>0.239781636956824</v>
       </c>
-      <c r="S30" s="46">
+      <c r="S30" s="45">
         <v>0.23585658615729799</v>
       </c>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="B31" s="26"/>
-      <c r="C31" s="40"/>
-      <c r="D31" s="40"/>
-      <c r="E31" s="29">
+      <c r="B31" s="25"/>
+      <c r="C31" s="39"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="28">
         <f>(1+$C30)/(1+E30)</f>
         <v>0.98959537395586827</v>
       </c>
-      <c r="F31" s="29"/>
-      <c r="G31" s="29">
+      <c r="F31" s="28"/>
+      <c r="G31" s="28">
         <f t="shared" ref="G31" si="56">(1+$C30)/(1+G30)</f>
         <v>1.0286209460558546</v>
       </c>
-      <c r="H31" s="29"/>
-      <c r="I31" s="29">
+      <c r="H31" s="28"/>
+      <c r="I31" s="28">
         <f t="shared" ref="I31" si="57">(1+$C30)/(1+I30)</f>
         <v>0.99698624448336925</v>
       </c>
-      <c r="J31" s="29"/>
+      <c r="J31" s="28"/>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A32" s="35" t="s">
+      <c r="A32" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="B32" s="26">
+      <c r="B32" s="25">
         <f>O29</f>
         <v>4356</v>
       </c>
-      <c r="C32" s="27">
+      <c r="C32" s="26">
         <f t="shared" ref="C32" si="58">P29</f>
         <v>0.279073022279271</v>
       </c>
-      <c r="D32" s="27"/>
-      <c r="E32" s="27">
+      <c r="D32" s="26"/>
+      <c r="E32" s="26">
         <f t="shared" ref="E32" si="59">Q29</f>
         <v>0.36947513514027602</v>
       </c>
-      <c r="F32" s="27"/>
-      <c r="G32" s="27">
+      <c r="F32" s="26"/>
+      <c r="G32" s="26">
         <f t="shared" ref="G32" si="60">R29</f>
         <v>0.41659284895329102</v>
       </c>
-      <c r="H32" s="27"/>
-      <c r="I32" s="27">
+      <c r="H32" s="26"/>
+      <c r="I32" s="26">
         <f t="shared" ref="I32" si="61">S29</f>
         <v>0.46422115019649801</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="C33" s="27"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="29">
+      <c r="C33" s="26"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="28">
         <f>(1+$C32)/(1+E32)</f>
         <v>0.9339877661584961</v>
       </c>
-      <c r="F33" s="29"/>
-      <c r="G33" s="29">
+      <c r="F33" s="28"/>
+      <c r="G33" s="28">
         <f t="shared" ref="G33" si="62">(1+$C32)/(1+G32)</f>
         <v>0.90292212277110362</v>
       </c>
-      <c r="H33" s="29"/>
-      <c r="I33" s="29">
+      <c r="H33" s="28"/>
+      <c r="I33" s="28">
         <f t="shared" ref="I33" si="63">(1+$C32)/(1+I32)</f>
         <v>0.87355180063313509</v>
       </c>
-      <c r="J33" s="29"/>
+      <c r="J33" s="28"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A34" s="35" t="s">
+      <c r="A34" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="B34" s="26">
+      <c r="B34" s="25">
         <f>O30</f>
         <v>1786</v>
       </c>
-      <c r="C34" s="27">
+      <c r="C34" s="26">
         <f t="shared" ref="C34" si="64">P30</f>
         <v>6.15165366067622E-2</v>
       </c>
-      <c r="D34" s="27"/>
-      <c r="E34" s="27">
+      <c r="D34" s="26"/>
+      <c r="E34" s="26">
         <f t="shared" ref="E34" si="65">Q30</f>
         <v>0.25792135308095299</v>
       </c>
-      <c r="F34" s="27"/>
-      <c r="G34" s="27">
+      <c r="F34" s="26"/>
+      <c r="G34" s="26">
         <f t="shared" ref="G34" si="66">R30</f>
         <v>0.239781636956824</v>
       </c>
-      <c r="H34" s="27"/>
-      <c r="I34" s="27">
+      <c r="H34" s="26"/>
+      <c r="I34" s="26">
         <f t="shared" ref="I34" si="67">S30</f>
         <v>0.23585658615729799</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A35" s="35"/>
-      <c r="C35" s="27"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="29">
+      <c r="A35" s="34"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="28">
         <f>(1+$C34)/(1+E34)</f>
         <v>0.84386558349363583</v>
       </c>
-      <c r="F35" s="29"/>
-      <c r="G35" s="29">
+      <c r="F35" s="28"/>
+      <c r="G35" s="28">
         <f t="shared" ref="G35" si="68">(1+$C34)/(1+G34)</f>
         <v>0.85621250143079031</v>
       </c>
-      <c r="H35" s="29"/>
-      <c r="I35" s="29">
+      <c r="H35" s="28"/>
+      <c r="I35" s="28">
         <f t="shared" ref="I35" si="69">(1+$C34)/(1+I34)</f>
         <v>0.85893181174636235</v>
       </c>
-      <c r="J35" s="29"/>
+      <c r="J35" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3739,18 +3739,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="Q31" sqref="Q31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="10.83203125" style="50"/>
-    <col min="3" max="3" width="5.1640625" style="50" customWidth="1"/>
-    <col min="4" max="7" width="10.83203125" style="50"/>
-    <col min="10" max="10" width="10.83203125" style="50"/>
-    <col min="11" max="11" width="3.83203125" style="50" customWidth="1"/>
-    <col min="12" max="15" width="10.83203125" style="50"/>
+    <col min="2" max="2" width="10.83203125" style="49"/>
+    <col min="3" max="3" width="5.1640625" style="49" customWidth="1"/>
+    <col min="4" max="7" width="10.83203125" style="49"/>
+    <col min="10" max="10" width="10.83203125" style="49"/>
+    <col min="11" max="11" width="3.83203125" style="49" customWidth="1"/>
+    <col min="12" max="15" width="10.83203125" style="49"/>
     <col min="18" max="18" width="9.5" customWidth="1"/>
     <col min="26" max="26" width="8.83203125" customWidth="1"/>
   </cols>
@@ -3759,657 +3759,657 @@
       <c r="A1" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="49" t="s">
         <v>58</v>
       </c>
       <c r="I1" t="s">
         <v>67</v>
       </c>
-      <c r="J1" s="50" t="s">
+      <c r="J1" s="49" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="18" x14ac:dyDescent="0.2">
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="D2" s="50" t="s">
+      <c r="D2" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="E2" s="50" t="s">
+      <c r="E2" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="50" t="s">
+      <c r="F2" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="G2" s="50" t="s">
+      <c r="G2" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="J2" s="50" t="s">
+      <c r="J2" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="L2" s="50" t="s">
+      <c r="L2" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="M2" s="50" t="s">
+      <c r="M2" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="N2" s="50" t="s">
+      <c r="N2" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="O2" s="50" t="s">
+      <c r="O2" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="Q2" s="51"/>
-      <c r="R2" s="51"/>
-      <c r="S2" s="51"/>
-      <c r="T2" s="51"/>
-      <c r="U2" s="51"/>
-      <c r="V2" s="51"/>
+      <c r="Q2" s="50"/>
+      <c r="R2" s="50"/>
+      <c r="S2" s="50"/>
+      <c r="T2" s="50"/>
+      <c r="U2" s="50"/>
+      <c r="V2" s="50"/>
     </row>
     <row r="3" spans="1:22" ht="18" x14ac:dyDescent="0.2">
-      <c r="Q3" s="51"/>
-      <c r="R3" s="51"/>
-      <c r="S3" s="51"/>
-      <c r="T3" s="51"/>
-      <c r="U3" s="51"/>
-      <c r="V3" s="51"/>
+      <c r="Q3" s="50"/>
+      <c r="R3" s="50"/>
+      <c r="S3" s="50"/>
+      <c r="T3" s="50"/>
+      <c r="U3" s="50"/>
+      <c r="V3" s="50"/>
     </row>
     <row r="4" spans="1:22" ht="18" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>102</v>
       </c>
-      <c r="B4" s="50">
+      <c r="B4" s="49">
         <v>0.10100000000000001</v>
       </c>
-      <c r="D4" s="50">
+      <c r="D4" s="49">
         <v>-0.92500000000000004</v>
       </c>
-      <c r="E4" s="50">
+      <c r="E4" s="49">
         <v>-0.29499999999999998</v>
       </c>
-      <c r="F4" s="50">
+      <c r="F4" s="49">
         <v>0.221</v>
       </c>
-      <c r="G4" s="50">
+      <c r="G4" s="49">
         <v>-0.112</v>
       </c>
       <c r="I4" t="s">
         <v>102</v>
       </c>
-      <c r="J4" s="50">
+      <c r="J4" s="49">
         <v>-2E-3</v>
       </c>
-      <c r="L4" s="50">
+      <c r="L4" s="49">
         <v>-0.69199999999999995</v>
       </c>
-      <c r="M4" s="50">
+      <c r="M4" s="49">
         <v>-0.28699999999999998</v>
       </c>
-      <c r="N4" s="50">
+      <c r="N4" s="49">
         <v>-0.20200000000000001</v>
       </c>
-      <c r="O4" s="50">
+      <c r="O4" s="49">
         <v>-0.30499999999999999</v>
       </c>
-      <c r="Q4" s="51"/>
-      <c r="R4" s="51"/>
-      <c r="S4" s="51"/>
-      <c r="T4" s="51"/>
-      <c r="U4" s="51"/>
-      <c r="V4" s="51"/>
-    </row>
-    <row r="5" spans="1:22" s="53" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="B5" s="52">
+      <c r="Q4" s="50"/>
+      <c r="R4" s="50"/>
+      <c r="S4" s="50"/>
+      <c r="T4" s="50"/>
+      <c r="U4" s="50"/>
+      <c r="V4" s="50"/>
+    </row>
+    <row r="5" spans="1:22" s="52" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="B5" s="51">
         <v>-0.15</v>
       </c>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52">
+      <c r="C5" s="51"/>
+      <c r="D5" s="51">
         <v>-0.72199999999999998</v>
       </c>
-      <c r="E5" s="52">
+      <c r="E5" s="51">
         <v>-0.32800000000000001</v>
       </c>
-      <c r="F5" s="52">
+      <c r="F5" s="51">
         <v>-0.47799999999999998</v>
       </c>
-      <c r="G5" s="52">
+      <c r="G5" s="51">
         <v>-0.25</v>
       </c>
-      <c r="J5" s="52">
+      <c r="J5" s="51">
         <v>-0.17799999999999999</v>
       </c>
-      <c r="K5" s="52"/>
-      <c r="L5" s="52">
+      <c r="K5" s="51"/>
+      <c r="L5" s="51">
         <v>-0.82899999999999996</v>
       </c>
-      <c r="M5" s="52">
+      <c r="M5" s="51">
         <v>-0.34599999999999997</v>
       </c>
-      <c r="N5" s="52">
+      <c r="N5" s="51">
         <v>-0.53800000000000003</v>
       </c>
-      <c r="O5" s="52">
+      <c r="O5" s="51">
         <v>-0.23499999999999999</v>
       </c>
-      <c r="Q5" s="55"/>
-      <c r="R5" s="55"/>
-      <c r="S5" s="55"/>
-      <c r="T5" s="55"/>
-      <c r="U5" s="55"/>
-      <c r="V5" s="55"/>
+      <c r="Q5" s="54"/>
+      <c r="R5" s="54"/>
+      <c r="S5" s="54"/>
+      <c r="T5" s="54"/>
+      <c r="U5" s="54"/>
+      <c r="V5" s="54"/>
     </row>
     <row r="6" spans="1:22" ht="18" x14ac:dyDescent="0.2">
-      <c r="Q6" s="51"/>
-      <c r="R6" s="51"/>
-      <c r="S6" s="51"/>
-      <c r="T6" s="51"/>
-      <c r="U6" s="51"/>
-      <c r="V6" s="51"/>
+      <c r="Q6" s="50"/>
+      <c r="R6" s="50"/>
+      <c r="S6" s="50"/>
+      <c r="T6" s="50"/>
+      <c r="U6" s="50"/>
+      <c r="V6" s="50"/>
     </row>
     <row r="7" spans="1:22" ht="18" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>103</v>
       </c>
-      <c r="B7" s="50" t="s">
+      <c r="B7" s="49" t="s">
         <v>108</v>
       </c>
-      <c r="D7" s="50" t="s">
+      <c r="D7" s="49" t="s">
         <v>111</v>
       </c>
-      <c r="E7" s="50" t="s">
+      <c r="E7" s="49" t="s">
         <v>112</v>
       </c>
-      <c r="F7" s="50" t="s">
+      <c r="F7" s="49" t="s">
         <v>113</v>
       </c>
-      <c r="G7" s="50" t="s">
+      <c r="G7" s="49" t="s">
         <v>114</v>
       </c>
       <c r="I7" t="s">
         <v>103</v>
       </c>
-      <c r="J7" s="50" t="s">
+      <c r="J7" s="49" t="s">
         <v>124</v>
       </c>
-      <c r="L7" s="50" t="s">
+      <c r="L7" s="49" t="s">
         <v>128</v>
       </c>
-      <c r="M7" s="50" t="s">
+      <c r="M7" s="49" t="s">
         <v>129</v>
       </c>
-      <c r="N7" s="50" t="s">
+      <c r="N7" s="49" t="s">
         <v>130</v>
       </c>
-      <c r="O7" s="50" t="s">
+      <c r="O7" s="49" t="s">
         <v>131</v>
       </c>
-      <c r="Q7" s="51"/>
-      <c r="R7" s="51"/>
-      <c r="S7" s="51"/>
-      <c r="T7" s="51"/>
-      <c r="U7" s="51"/>
-      <c r="V7" s="51"/>
-    </row>
-    <row r="8" spans="1:22" s="53" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="B8" s="52">
+      <c r="Q7" s="50"/>
+      <c r="R7" s="50"/>
+      <c r="S7" s="50"/>
+      <c r="T7" s="50"/>
+      <c r="U7" s="50"/>
+      <c r="V7" s="50"/>
+    </row>
+    <row r="8" spans="1:22" s="52" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="B8" s="51">
         <v>-3.4000000000000002E-2</v>
       </c>
-      <c r="C8" s="52"/>
-      <c r="D8" s="52">
+      <c r="C8" s="51"/>
+      <c r="D8" s="51">
         <v>-0.16400000000000001</v>
       </c>
-      <c r="E8" s="52">
+      <c r="E8" s="51">
         <v>-7.8E-2</v>
       </c>
-      <c r="F8" s="52">
+      <c r="F8" s="51">
         <v>-0.12</v>
       </c>
-      <c r="G8" s="52">
+      <c r="G8" s="51">
         <v>-6.3E-2</v>
       </c>
-      <c r="J8" s="52">
+      <c r="J8" s="51">
         <v>-4.1000000000000002E-2</v>
       </c>
-      <c r="K8" s="52"/>
-      <c r="L8" s="52">
+      <c r="K8" s="51"/>
+      <c r="L8" s="51">
         <v>-0.188</v>
       </c>
-      <c r="M8" s="52">
+      <c r="M8" s="51">
         <v>-8.2000000000000003E-2</v>
       </c>
-      <c r="N8" s="52">
+      <c r="N8" s="51">
         <v>-0.13500000000000001</v>
       </c>
-      <c r="O8" s="52">
+      <c r="O8" s="51">
         <v>-5.8999999999999997E-2</v>
       </c>
-      <c r="Q8" s="55"/>
-      <c r="R8" s="55"/>
-      <c r="S8" s="55"/>
-      <c r="T8" s="55"/>
-      <c r="U8" s="55"/>
-      <c r="V8" s="55"/>
+      <c r="Q8" s="54"/>
+      <c r="R8" s="54"/>
+      <c r="S8" s="54"/>
+      <c r="T8" s="54"/>
+      <c r="U8" s="54"/>
+      <c r="V8" s="54"/>
     </row>
     <row r="9" spans="1:22" ht="18" x14ac:dyDescent="0.2">
-      <c r="Q9" s="51"/>
-      <c r="R9" s="51"/>
-      <c r="S9" s="51"/>
-      <c r="T9" s="51"/>
-      <c r="U9" s="51"/>
-      <c r="V9" s="51"/>
+      <c r="Q9" s="50"/>
+      <c r="R9" s="50"/>
+      <c r="S9" s="50"/>
+      <c r="T9" s="50"/>
+      <c r="U9" s="50"/>
+      <c r="V9" s="50"/>
     </row>
     <row r="10" spans="1:22" ht="18" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>104</v>
       </c>
-      <c r="B10" s="50" t="s">
+      <c r="B10" s="49" t="s">
         <v>109</v>
       </c>
-      <c r="D10" s="50" t="s">
+      <c r="D10" s="49" t="s">
         <v>115</v>
       </c>
-      <c r="E10" s="50" t="s">
+      <c r="E10" s="49" t="s">
         <v>116</v>
       </c>
-      <c r="F10" s="50" t="s">
+      <c r="F10" s="49" t="s">
         <v>117</v>
       </c>
-      <c r="G10" s="50" t="s">
+      <c r="G10" s="49" t="s">
         <v>118</v>
       </c>
       <c r="I10" t="s">
         <v>104</v>
       </c>
-      <c r="J10" s="50" t="s">
+      <c r="J10" s="49" t="s">
         <v>125</v>
       </c>
-      <c r="L10" s="50" t="s">
+      <c r="L10" s="49" t="s">
         <v>132</v>
       </c>
-      <c r="M10" s="50" t="s">
+      <c r="M10" s="49" t="s">
         <v>133</v>
       </c>
-      <c r="N10" s="50" t="s">
+      <c r="N10" s="49" t="s">
         <v>134</v>
       </c>
-      <c r="O10" s="50" t="s">
+      <c r="O10" s="49" t="s">
         <v>135</v>
       </c>
-      <c r="Q10" s="51"/>
-      <c r="R10" s="51"/>
-      <c r="S10" s="51"/>
-      <c r="T10" s="51"/>
-      <c r="U10" s="51"/>
-      <c r="V10" s="51"/>
-    </row>
-    <row r="11" spans="1:22" s="53" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="B11" s="52">
+      <c r="Q10" s="50"/>
+      <c r="R10" s="50"/>
+      <c r="S10" s="50"/>
+      <c r="T10" s="50"/>
+      <c r="U10" s="50"/>
+      <c r="V10" s="50"/>
+    </row>
+    <row r="11" spans="1:22" s="52" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="B11" s="51">
         <v>-4.8000000000000001E-2</v>
       </c>
-      <c r="C11" s="52"/>
-      <c r="D11" s="52">
+      <c r="C11" s="51"/>
+      <c r="D11" s="51">
         <v>-0.247</v>
       </c>
-      <c r="E11" s="52">
+      <c r="E11" s="51">
         <v>-0.121</v>
       </c>
-      <c r="F11" s="52">
+      <c r="F11" s="51">
         <v>-0.13900000000000001</v>
       </c>
-      <c r="G11" s="52">
+      <c r="G11" s="51">
         <v>-0.08</v>
       </c>
-      <c r="J11" s="52">
+      <c r="J11" s="51">
         <v>-5.7000000000000002E-2</v>
       </c>
-      <c r="K11" s="52"/>
-      <c r="L11" s="52">
+      <c r="K11" s="51"/>
+      <c r="L11" s="51">
         <v>-0.28399999999999997</v>
       </c>
-      <c r="M11" s="52">
+      <c r="M11" s="51">
         <v>-0.128</v>
       </c>
-      <c r="N11" s="52">
+      <c r="N11" s="51">
         <v>-0.157</v>
       </c>
-      <c r="O11" s="52">
+      <c r="O11" s="51">
         <v>-7.4999999999999997E-2</v>
       </c>
-      <c r="Q11" s="55"/>
-      <c r="R11" s="55"/>
-      <c r="S11" s="55"/>
-      <c r="T11" s="55"/>
-      <c r="U11" s="55"/>
-      <c r="V11" s="55"/>
+      <c r="Q11" s="54"/>
+      <c r="R11" s="54"/>
+      <c r="S11" s="54"/>
+      <c r="T11" s="54"/>
+      <c r="U11" s="54"/>
+      <c r="V11" s="54"/>
     </row>
     <row r="12" spans="1:22" ht="18" x14ac:dyDescent="0.2">
-      <c r="Q12" s="51"/>
-      <c r="R12" s="51"/>
-      <c r="S12" s="51"/>
-      <c r="T12" s="51"/>
-      <c r="U12" s="51"/>
-      <c r="V12" s="51"/>
+      <c r="Q12" s="50"/>
+      <c r="R12" s="50"/>
+      <c r="S12" s="50"/>
+      <c r="T12" s="50"/>
+      <c r="U12" s="50"/>
+      <c r="V12" s="50"/>
     </row>
     <row r="13" spans="1:22" ht="18" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>105</v>
       </c>
-      <c r="B13" s="50" t="s">
+      <c r="B13" s="49" t="s">
         <v>110</v>
       </c>
-      <c r="D13" s="50" t="s">
+      <c r="D13" s="49" t="s">
         <v>119</v>
       </c>
-      <c r="E13" s="50">
+      <c r="E13" s="49">
         <v>6.4000000000000001E-2</v>
       </c>
-      <c r="F13" s="50" t="s">
+      <c r="F13" s="49" t="s">
         <v>120</v>
       </c>
-      <c r="G13" s="50" t="s">
+      <c r="G13" s="49" t="s">
         <v>121</v>
       </c>
       <c r="I13" t="s">
         <v>105</v>
       </c>
-      <c r="J13" s="50" t="s">
+      <c r="J13" s="49" t="s">
         <v>126</v>
       </c>
-      <c r="L13" s="50" t="s">
+      <c r="L13" s="49" t="s">
         <v>136</v>
       </c>
-      <c r="M13" s="50">
+      <c r="M13" s="49">
         <v>-0.152</v>
       </c>
-      <c r="N13" s="50" t="s">
+      <c r="N13" s="49" t="s">
         <v>137</v>
       </c>
-      <c r="O13" s="50" t="s">
+      <c r="O13" s="49" t="s">
         <v>138</v>
       </c>
-      <c r="Q13" s="51"/>
-      <c r="R13" s="51"/>
-      <c r="S13" s="51"/>
-      <c r="T13" s="51"/>
-      <c r="U13" s="51"/>
-      <c r="V13" s="51"/>
-    </row>
-    <row r="14" spans="1:22" s="53" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="B14" s="52">
+      <c r="Q13" s="50"/>
+      <c r="R13" s="50"/>
+      <c r="S13" s="50"/>
+      <c r="T13" s="50"/>
+      <c r="U13" s="50"/>
+      <c r="V13" s="50"/>
+    </row>
+    <row r="14" spans="1:22" s="52" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="B14" s="51">
         <v>-5.2999999999999999E-2</v>
       </c>
-      <c r="C14" s="52"/>
-      <c r="D14" s="52">
+      <c r="C14" s="51"/>
+      <c r="D14" s="51">
         <v>-0.249</v>
       </c>
-      <c r="E14" s="52">
+      <c r="E14" s="51">
         <v>-0.13600000000000001</v>
       </c>
-      <c r="F14" s="52">
+      <c r="F14" s="51">
         <v>-0.17299999999999999</v>
       </c>
-      <c r="G14" s="52">
+      <c r="G14" s="51">
         <v>-0.08</v>
       </c>
-      <c r="J14" s="52">
+      <c r="J14" s="51">
         <v>-6.2E-2</v>
       </c>
-      <c r="K14" s="52"/>
-      <c r="L14" s="52">
+      <c r="K14" s="51"/>
+      <c r="L14" s="51">
         <v>-0.28599999999999998</v>
       </c>
-      <c r="M14" s="52">
+      <c r="M14" s="51">
         <v>-0.14399999999999999</v>
       </c>
-      <c r="N14" s="52">
+      <c r="N14" s="51">
         <v>-0.19500000000000001</v>
       </c>
-      <c r="O14" s="52">
+      <c r="O14" s="51">
         <v>-7.4999999999999997E-2</v>
       </c>
-      <c r="Q14" s="55"/>
-      <c r="R14" s="55"/>
-      <c r="S14" s="55"/>
-      <c r="T14" s="55"/>
-      <c r="U14" s="55"/>
-      <c r="V14" s="55"/>
+      <c r="Q14" s="54"/>
+      <c r="R14" s="54"/>
+      <c r="S14" s="54"/>
+      <c r="T14" s="54"/>
+      <c r="U14" s="54"/>
+      <c r="V14" s="54"/>
     </row>
     <row r="15" spans="1:22" ht="18" x14ac:dyDescent="0.2">
-      <c r="Q15" s="51"/>
-      <c r="R15" s="51"/>
-      <c r="S15" s="51"/>
-      <c r="T15" s="51"/>
-      <c r="U15" s="51"/>
-      <c r="V15" s="51"/>
+      <c r="Q15" s="50"/>
+      <c r="R15" s="50"/>
+      <c r="S15" s="50"/>
+      <c r="T15" s="50"/>
+      <c r="U15" s="50"/>
+      <c r="V15" s="50"/>
     </row>
     <row r="16" spans="1:22" ht="18" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>106</v>
       </c>
-      <c r="B16" s="50" t="s">
+      <c r="B16" s="49" t="s">
         <v>101</v>
       </c>
-      <c r="D16" s="50">
+      <c r="D16" s="49">
         <v>0.14499999999999999</v>
       </c>
-      <c r="E16" s="50">
+      <c r="E16" s="49">
         <v>0.124</v>
       </c>
-      <c r="F16" s="50" t="s">
+      <c r="F16" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="G16" s="50" t="s">
+      <c r="G16" s="49" t="s">
         <v>123</v>
       </c>
       <c r="I16" t="s">
         <v>106</v>
       </c>
-      <c r="J16" s="50" t="s">
+      <c r="J16" s="49" t="s">
         <v>127</v>
       </c>
-      <c r="L16" s="50" t="s">
+      <c r="L16" s="49" t="s">
         <v>139</v>
       </c>
-      <c r="M16" s="50" t="s">
+      <c r="M16" s="49" t="s">
         <v>140</v>
       </c>
-      <c r="N16" s="50">
+      <c r="N16" s="49">
         <v>-1.9E-2</v>
       </c>
-      <c r="O16" s="50" t="s">
+      <c r="O16" s="49" t="s">
         <v>141</v>
       </c>
-      <c r="Q16" s="51"/>
-      <c r="R16" s="51"/>
-      <c r="S16" s="51"/>
-      <c r="T16" s="51"/>
-      <c r="U16" s="51"/>
-      <c r="V16" s="51"/>
-    </row>
-    <row r="17" spans="1:22" s="53" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="B17" s="52">
+      <c r="Q16" s="50"/>
+      <c r="R16" s="50"/>
+      <c r="S16" s="50"/>
+      <c r="T16" s="50"/>
+      <c r="U16" s="50"/>
+      <c r="V16" s="50"/>
+    </row>
+    <row r="17" spans="1:22" s="52" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="B17" s="51">
         <v>-3.4000000000000002E-2</v>
       </c>
-      <c r="C17" s="52"/>
-      <c r="D17" s="52">
+      <c r="C17" s="51"/>
+      <c r="D17" s="51">
         <v>-0.17100000000000001</v>
       </c>
-      <c r="E17" s="52">
+      <c r="E17" s="51">
         <v>-9.5000000000000001E-2</v>
       </c>
-      <c r="F17" s="52">
+      <c r="F17" s="51">
         <v>-0.10100000000000001</v>
       </c>
-      <c r="G17" s="52">
+      <c r="G17" s="51">
         <v>-4.9000000000000002E-2</v>
       </c>
-      <c r="J17" s="52">
+      <c r="J17" s="51">
         <v>-0.04</v>
       </c>
-      <c r="K17" s="52"/>
-      <c r="L17" s="52">
+      <c r="K17" s="51"/>
+      <c r="L17" s="51">
         <v>-0.19600000000000001</v>
       </c>
-      <c r="M17" s="52">
+      <c r="M17" s="51">
         <v>-0.1</v>
       </c>
-      <c r="N17" s="52">
+      <c r="N17" s="51">
         <v>-0.114</v>
       </c>
-      <c r="O17" s="52">
+      <c r="O17" s="51">
         <v>-4.5999999999999999E-2</v>
       </c>
-      <c r="Q17" s="55"/>
+      <c r="Q17" s="54"/>
     </row>
     <row r="18" spans="1:22" ht="18" x14ac:dyDescent="0.2">
-      <c r="Q18" s="51"/>
-      <c r="R18" s="51"/>
-      <c r="S18" s="51"/>
-      <c r="T18" s="51"/>
-      <c r="U18" s="51"/>
-      <c r="V18" s="51"/>
+      <c r="Q18" s="50"/>
+      <c r="R18" s="50"/>
+      <c r="S18" s="50"/>
+      <c r="T18" s="50"/>
+      <c r="U18" s="50"/>
+      <c r="V18" s="50"/>
     </row>
     <row r="19" spans="1:22" ht="18" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>59</v>
       </c>
-      <c r="B19" s="50">
+      <c r="B19" s="49">
         <v>526</v>
       </c>
-      <c r="D19" s="50">
+      <c r="D19" s="49">
         <v>144</v>
       </c>
-      <c r="E19" s="50">
+      <c r="E19" s="49">
         <v>180</v>
       </c>
-      <c r="F19" s="50">
+      <c r="F19" s="49">
         <v>225</v>
       </c>
-      <c r="G19" s="50">
+      <c r="G19" s="49">
         <v>203</v>
       </c>
       <c r="I19" t="s">
         <v>59</v>
       </c>
-      <c r="J19" s="50">
+      <c r="J19" s="49">
         <v>526</v>
       </c>
-      <c r="L19" s="50">
+      <c r="L19" s="49">
         <v>144</v>
       </c>
-      <c r="M19" s="50">
+      <c r="M19" s="49">
         <v>180</v>
       </c>
-      <c r="N19" s="50">
+      <c r="N19" s="49">
         <v>225</v>
       </c>
-      <c r="O19" s="50">
+      <c r="O19" s="49">
         <v>203</v>
       </c>
-      <c r="Q19" s="51"/>
-      <c r="R19" s="51"/>
-      <c r="S19" s="51"/>
-      <c r="T19" s="51"/>
-      <c r="U19" s="51"/>
-      <c r="V19" s="51"/>
+      <c r="Q19" s="50"/>
+      <c r="R19" s="50"/>
+      <c r="S19" s="50"/>
+      <c r="T19" s="50"/>
+      <c r="U19" s="50"/>
+      <c r="V19" s="50"/>
     </row>
     <row r="20" spans="1:22" ht="18" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>60</v>
       </c>
-      <c r="B20" s="50">
+      <c r="B20" s="49">
         <v>0.84599999999999997</v>
       </c>
-      <c r="D20" s="50">
+      <c r="D20" s="49">
         <v>0.58399999999999996</v>
       </c>
-      <c r="E20" s="50">
+      <c r="E20" s="49">
         <v>0.71399999999999997</v>
       </c>
-      <c r="F20" s="50">
+      <c r="F20" s="49">
         <v>0.63600000000000001</v>
       </c>
-      <c r="G20" s="50">
+      <c r="G20" s="49">
         <v>0.876</v>
       </c>
       <c r="I20" t="s">
         <v>60</v>
       </c>
-      <c r="J20" s="50">
+      <c r="J20" s="49">
         <v>0.77200000000000002</v>
       </c>
-      <c r="L20" s="50">
+      <c r="L20" s="49">
         <v>0.49399999999999999</v>
       </c>
-      <c r="M20" s="50">
+      <c r="M20" s="49">
         <v>0.68700000000000006</v>
       </c>
-      <c r="N20" s="50">
+      <c r="N20" s="49">
         <v>0.57699999999999996</v>
       </c>
-      <c r="O20" s="50">
+      <c r="O20" s="49">
         <v>0.85299999999999998</v>
       </c>
-      <c r="Q20" s="51"/>
-      <c r="R20" s="51"/>
-      <c r="S20" s="51"/>
-      <c r="T20" s="51"/>
-      <c r="U20" s="51"/>
-      <c r="V20" s="51"/>
+      <c r="Q20" s="50"/>
+      <c r="R20" s="50"/>
+      <c r="S20" s="50"/>
+      <c r="T20" s="50"/>
+      <c r="U20" s="50"/>
+      <c r="V20" s="50"/>
     </row>
     <row r="21" spans="1:22" ht="18" x14ac:dyDescent="0.2">
-      <c r="Q21" s="51"/>
-      <c r="R21" s="51"/>
-      <c r="S21" s="51"/>
-      <c r="T21" s="51"/>
-      <c r="U21" s="51"/>
-      <c r="V21" s="51"/>
+      <c r="Q21" s="50"/>
+      <c r="R21" s="50"/>
+      <c r="S21" s="50"/>
+      <c r="T21" s="50"/>
+      <c r="U21" s="50"/>
+      <c r="V21" s="50"/>
     </row>
     <row r="22" spans="1:22" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="23" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>68</v>
       </c>
-      <c r="B23" s="50" t="s">
+      <c r="B23" s="49" t="s">
         <v>58</v>
       </c>
       <c r="I23" t="s">
         <v>69</v>
       </c>
-      <c r="J23" s="50" t="s">
+      <c r="J23" s="49" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B24" s="50" t="s">
+      <c r="B24" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="D24" s="50" t="s">
+      <c r="D24" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="E24" s="50" t="s">
+      <c r="E24" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="F24" s="50" t="s">
+      <c r="F24" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="G24" s="50" t="s">
+      <c r="G24" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="J24" s="50" t="s">
+      <c r="J24" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="L24" s="50" t="s">
+      <c r="L24" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="M24" s="50" t="s">
+      <c r="M24" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="N24" s="50" t="s">
+      <c r="N24" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="O24" s="50" t="s">
+      <c r="O24" s="49" t="s">
         <v>65</v>
       </c>
     </row>
@@ -4417,71 +4417,71 @@
       <c r="A26" t="s">
         <v>102</v>
       </c>
-      <c r="B26" s="50">
+      <c r="B26" s="49">
         <v>0.123</v>
       </c>
-      <c r="D26" s="50">
+      <c r="D26" s="49">
         <v>1.2609999999999999</v>
       </c>
-      <c r="E26" s="50">
+      <c r="E26" s="49">
         <v>-0.30299999999999999</v>
       </c>
-      <c r="F26" s="50">
+      <c r="F26" s="49">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="G26" s="50">
+      <c r="G26" s="49">
         <v>-0.106</v>
       </c>
       <c r="I26" t="s">
         <v>102</v>
       </c>
-      <c r="J26" s="50">
+      <c r="J26" s="49">
         <v>-6.5000000000000002E-2</v>
       </c>
-      <c r="L26" s="50">
+      <c r="L26" s="49">
         <v>1.46</v>
       </c>
-      <c r="M26" s="50">
+      <c r="M26" s="49">
         <v>-0.23300000000000001</v>
       </c>
-      <c r="N26" s="50">
+      <c r="N26" s="49">
         <v>-0.77300000000000002</v>
       </c>
-      <c r="O26" s="50">
+      <c r="O26" s="49">
         <v>-0.26400000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:22" s="53" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="52">
+    <row r="27" spans="1:22" s="52" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="51">
         <v>-0.14299999999999999</v>
       </c>
-      <c r="C27" s="52"/>
-      <c r="D27" s="52">
+      <c r="C27" s="51"/>
+      <c r="D27" s="51">
         <v>-2.6709999999999998</v>
       </c>
-      <c r="E27" s="52">
+      <c r="E27" s="51">
         <v>-0.497</v>
       </c>
-      <c r="F27" s="52">
+      <c r="F27" s="51">
         <v>-0.42899999999999999</v>
       </c>
-      <c r="G27" s="52">
+      <c r="G27" s="51">
         <v>-0.23799999999999999</v>
       </c>
-      <c r="J27" s="52">
+      <c r="J27" s="51">
         <v>-0.17100000000000001</v>
       </c>
-      <c r="K27" s="52"/>
-      <c r="L27" s="52">
+      <c r="K27" s="51"/>
+      <c r="L27" s="51">
         <v>-2.702</v>
       </c>
-      <c r="M27" s="52">
+      <c r="M27" s="51">
         <v>-0.48299999999999998</v>
       </c>
-      <c r="N27" s="52">
+      <c r="N27" s="51">
         <v>-0.47399999999999998</v>
       </c>
-      <c r="O27" s="52">
+      <c r="O27" s="51">
         <v>-0.23499999999999999</v>
       </c>
     </row>
@@ -4489,71 +4489,71 @@
       <c r="A29" t="s">
         <v>103</v>
       </c>
-      <c r="B29" s="50" t="s">
+      <c r="B29" s="49" t="s">
         <v>100</v>
       </c>
-      <c r="D29" s="50">
+      <c r="D29" s="49">
         <v>0.58499999999999996</v>
       </c>
-      <c r="E29" s="50" t="s">
+      <c r="E29" s="49" t="s">
         <v>145</v>
       </c>
-      <c r="F29" s="50" t="s">
+      <c r="F29" s="49" t="s">
         <v>146</v>
       </c>
-      <c r="G29" s="50" t="s">
+      <c r="G29" s="49" t="s">
         <v>147</v>
       </c>
       <c r="I29" t="s">
         <v>103</v>
       </c>
-      <c r="J29" s="50" t="s">
+      <c r="J29" s="49" t="s">
         <v>156</v>
       </c>
-      <c r="L29" s="50">
+      <c r="L29" s="49">
         <v>0.36099999999999999</v>
       </c>
-      <c r="M29" s="50" t="s">
+      <c r="M29" s="49" t="s">
         <v>159</v>
       </c>
-      <c r="N29" s="50" t="s">
+      <c r="N29" s="49" t="s">
         <v>160</v>
       </c>
-      <c r="O29" s="50" t="s">
+      <c r="O29" s="49" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="30" spans="1:22" s="53" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="52">
+    <row r="30" spans="1:22" s="52" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="51">
         <v>-3.3000000000000002E-2</v>
       </c>
-      <c r="C30" s="52"/>
-      <c r="D30" s="52">
+      <c r="C30" s="51"/>
+      <c r="D30" s="51">
         <v>-0.58799999999999997</v>
       </c>
-      <c r="E30" s="52">
+      <c r="E30" s="51">
         <v>-0.11799999999999999</v>
       </c>
-      <c r="F30" s="52">
+      <c r="F30" s="51">
         <v>-0.10199999999999999</v>
       </c>
-      <c r="G30" s="52">
+      <c r="G30" s="51">
         <v>-0.06</v>
       </c>
-      <c r="J30" s="52">
+      <c r="J30" s="51">
         <v>-3.9E-2</v>
       </c>
-      <c r="K30" s="52"/>
-      <c r="L30" s="52">
+      <c r="K30" s="51"/>
+      <c r="L30" s="51">
         <v>-0.59499999999999997</v>
       </c>
-      <c r="M30" s="52">
+      <c r="M30" s="51">
         <v>-0.115</v>
       </c>
-      <c r="N30" s="52">
+      <c r="N30" s="51">
         <v>-0.112</v>
       </c>
-      <c r="O30" s="52">
+      <c r="O30" s="51">
         <v>-5.8999999999999997E-2</v>
       </c>
     </row>
@@ -4561,71 +4561,71 @@
       <c r="A32" t="s">
         <v>104</v>
       </c>
-      <c r="B32" s="50" t="s">
+      <c r="B32" s="49" t="s">
         <v>142</v>
       </c>
-      <c r="D32" s="50">
+      <c r="D32" s="49">
         <v>1.028</v>
       </c>
-      <c r="E32" s="50" t="s">
+      <c r="E32" s="49" t="s">
         <v>148</v>
       </c>
-      <c r="F32" s="50" t="s">
+      <c r="F32" s="49" t="s">
         <v>149</v>
       </c>
-      <c r="G32" s="50" t="s">
+      <c r="G32" s="49" t="s">
         <v>150</v>
       </c>
       <c r="I32" t="s">
         <v>104</v>
       </c>
-      <c r="J32" s="50" t="s">
+      <c r="J32" s="49" t="s">
         <v>157</v>
       </c>
-      <c r="L32" s="50">
+      <c r="L32" s="49">
         <v>0.70699999999999996</v>
       </c>
-      <c r="M32" s="50" t="s">
+      <c r="M32" s="49" t="s">
         <v>162</v>
       </c>
-      <c r="N32" s="50" t="s">
+      <c r="N32" s="49" t="s">
         <v>163</v>
       </c>
-      <c r="O32" s="50" t="s">
+      <c r="O32" s="49" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="33" spans="1:29" s="53" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="52">
+    <row r="33" spans="1:29" s="52" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="51">
         <v>-4.5999999999999999E-2</v>
       </c>
-      <c r="C33" s="52"/>
-      <c r="D33" s="52">
+      <c r="C33" s="51"/>
+      <c r="D33" s="51">
         <v>-0.91600000000000004</v>
       </c>
-      <c r="E33" s="52">
+      <c r="E33" s="51">
         <v>-0.17299999999999999</v>
       </c>
-      <c r="F33" s="52">
+      <c r="F33" s="51">
         <v>-0.13100000000000001</v>
       </c>
-      <c r="G33" s="52">
+      <c r="G33" s="51">
         <v>-7.5999999999999998E-2</v>
       </c>
-      <c r="J33" s="52">
+      <c r="J33" s="51">
         <v>-5.5E-2</v>
       </c>
-      <c r="K33" s="52"/>
-      <c r="L33" s="52">
+      <c r="K33" s="51"/>
+      <c r="L33" s="51">
         <v>-0.92700000000000005</v>
       </c>
-      <c r="M33" s="52">
+      <c r="M33" s="51">
         <v>-0.16800000000000001</v>
       </c>
-      <c r="N33" s="52">
+      <c r="N33" s="51">
         <v>-0.14599999999999999</v>
       </c>
-      <c r="O33" s="52">
+      <c r="O33" s="51">
         <v>-7.4999999999999997E-2</v>
       </c>
     </row>
@@ -4633,71 +4633,71 @@
       <c r="A35" t="s">
         <v>105</v>
       </c>
-      <c r="B35" s="50" t="s">
+      <c r="B35" s="49" t="s">
         <v>143</v>
       </c>
-      <c r="D35" s="50">
+      <c r="D35" s="49">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="E35" s="50">
+      <c r="E35" s="49">
         <v>0.14499999999999999</v>
       </c>
-      <c r="F35" s="50" t="s">
+      <c r="F35" s="49" t="s">
         <v>151</v>
       </c>
-      <c r="G35" s="50" t="s">
+      <c r="G35" s="49" t="s">
         <v>152</v>
       </c>
       <c r="I35" t="s">
         <v>105</v>
       </c>
-      <c r="J35" s="50" t="s">
+      <c r="J35" s="49" t="s">
         <v>158</v>
       </c>
-      <c r="L35" s="50">
+      <c r="L35" s="49">
         <v>-0.68899999999999995</v>
       </c>
-      <c r="M35" s="50">
+      <c r="M35" s="49">
         <v>-1.4E-2</v>
       </c>
-      <c r="N35" s="50" t="s">
+      <c r="N35" s="49" t="s">
         <v>165</v>
       </c>
-      <c r="O35" s="50" t="s">
+      <c r="O35" s="49" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="36" spans="1:29" s="53" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="52">
+    <row r="36" spans="1:29" s="52" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="51">
         <v>-0.05</v>
       </c>
-      <c r="C36" s="52"/>
-      <c r="D36" s="52">
+      <c r="C36" s="51"/>
+      <c r="D36" s="51">
         <v>-0.93799999999999994</v>
       </c>
-      <c r="E36" s="52">
+      <c r="E36" s="51">
         <v>-0.2</v>
       </c>
-      <c r="F36" s="52">
+      <c r="F36" s="51">
         <v>-0.14399999999999999</v>
       </c>
-      <c r="G36" s="52">
+      <c r="G36" s="51">
         <v>-7.5999999999999998E-2</v>
       </c>
-      <c r="J36" s="52">
+      <c r="J36" s="51">
         <v>-0.06</v>
       </c>
-      <c r="K36" s="52"/>
-      <c r="L36" s="52">
+      <c r="K36" s="51"/>
+      <c r="L36" s="51">
         <v>-0.94899999999999995</v>
       </c>
-      <c r="M36" s="52">
+      <c r="M36" s="51">
         <v>-0.19500000000000001</v>
       </c>
-      <c r="N36" s="52">
+      <c r="N36" s="51">
         <v>-0.159</v>
       </c>
-      <c r="O36" s="52">
+      <c r="O36" s="51">
         <v>-7.4999999999999997E-2</v>
       </c>
     </row>
@@ -4705,123 +4705,123 @@
       <c r="A38" t="s">
         <v>106</v>
       </c>
-      <c r="B38" s="50" t="s">
+      <c r="B38" s="49" t="s">
         <v>144</v>
       </c>
-      <c r="D38" s="50">
+      <c r="D38" s="49">
         <v>-5.1999999999999998E-2</v>
       </c>
-      <c r="E38" s="50" t="s">
+      <c r="E38" s="49" t="s">
         <v>153</v>
       </c>
-      <c r="F38" s="50" t="s">
+      <c r="F38" s="49" t="s">
         <v>154</v>
       </c>
-      <c r="G38" s="50" t="s">
+      <c r="G38" s="49" t="s">
         <v>155</v>
       </c>
       <c r="I38" t="s">
         <v>106</v>
       </c>
-      <c r="J38" s="50">
+      <c r="J38" s="49">
         <v>2E-3</v>
       </c>
-      <c r="L38" s="50">
+      <c r="L38" s="49">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="M38" s="50">
+      <c r="M38" s="49">
         <v>-8.4000000000000005E-2</v>
       </c>
-      <c r="N38" s="50">
+      <c r="N38" s="49">
         <v>0.03</v>
       </c>
-      <c r="O38" s="50">
+      <c r="O38" s="49">
         <v>6.9000000000000006E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:29" s="53" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="52">
+    <row r="39" spans="1:29" s="52" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="51">
         <v>-3.2000000000000001E-2</v>
       </c>
-      <c r="C39" s="52"/>
-      <c r="D39" s="52">
+      <c r="C39" s="51"/>
+      <c r="D39" s="51">
         <v>-0.65700000000000003</v>
       </c>
-      <c r="E39" s="52">
+      <c r="E39" s="51">
         <v>-0.128</v>
       </c>
-      <c r="F39" s="52">
+      <c r="F39" s="51">
         <v>-8.5999999999999993E-2</v>
       </c>
-      <c r="G39" s="52">
+      <c r="G39" s="51">
         <v>-4.7E-2</v>
       </c>
-      <c r="J39" s="52">
+      <c r="J39" s="51">
         <v>-3.7999999999999999E-2</v>
       </c>
-      <c r="K39" s="52"/>
-      <c r="L39" s="52">
+      <c r="K39" s="51"/>
+      <c r="L39" s="51">
         <v>-0.66400000000000003</v>
       </c>
-      <c r="M39" s="52">
+      <c r="M39" s="51">
         <v>-0.124</v>
       </c>
-      <c r="N39" s="52">
+      <c r="N39" s="51">
         <v>-9.6000000000000002E-2</v>
       </c>
-      <c r="O39" s="52">
+      <c r="O39" s="51">
         <v>-4.5999999999999999E-2</v>
       </c>
-      <c r="P39" s="54"/>
-      <c r="Q39" s="54"/>
-      <c r="R39" s="54"/>
-      <c r="S39" s="54"/>
-      <c r="T39" s="54"/>
-      <c r="U39" s="54"/>
+      <c r="P39" s="53"/>
+      <c r="Q39" s="53"/>
+      <c r="R39" s="53"/>
+      <c r="S39" s="53"/>
+      <c r="T39" s="53"/>
+      <c r="U39" s="53"/>
     </row>
     <row r="40" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="X40" s="56"/>
-      <c r="Y40" s="56"/>
-      <c r="Z40" s="56"/>
-      <c r="AA40" s="56"/>
-      <c r="AB40" s="56"/>
-      <c r="AC40" s="56"/>
+      <c r="X40" s="55"/>
+      <c r="Y40" s="55"/>
+      <c r="Z40" s="55"/>
+      <c r="AA40" s="55"/>
+      <c r="AB40" s="55"/>
+      <c r="AC40" s="55"/>
     </row>
     <row r="41" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>59</v>
       </c>
-      <c r="B41" s="50">
+      <c r="B41" s="49">
         <v>526</v>
       </c>
-      <c r="D41" s="50">
+      <c r="D41" s="49">
         <v>168</v>
       </c>
-      <c r="E41" s="50">
+      <c r="E41" s="49">
         <v>256</v>
       </c>
-      <c r="F41" s="50">
+      <c r="F41" s="49">
         <v>277</v>
       </c>
-      <c r="G41" s="50">
+      <c r="G41" s="49">
         <v>203</v>
       </c>
       <c r="I41" t="s">
         <v>59</v>
       </c>
-      <c r="J41" s="50">
+      <c r="J41" s="49">
         <v>526</v>
       </c>
-      <c r="L41" s="50">
+      <c r="L41" s="49">
         <v>168</v>
       </c>
-      <c r="M41" s="50">
+      <c r="M41" s="49">
         <v>256</v>
       </c>
-      <c r="N41" s="50">
+      <c r="N41" s="49">
         <v>277</v>
       </c>
-      <c r="O41" s="50">
+      <c r="O41" s="49">
         <v>203</v>
       </c>
     </row>
@@ -4829,37 +4829,37 @@
       <c r="A42" t="s">
         <v>60</v>
       </c>
-      <c r="B42" s="50">
+      <c r="B42" s="49">
         <v>0.85199999999999998</v>
       </c>
-      <c r="D42" s="50">
+      <c r="D42" s="49">
         <v>2.3E-2</v>
       </c>
-      <c r="E42" s="50">
+      <c r="E42" s="49">
         <v>0.39100000000000001</v>
       </c>
-      <c r="F42" s="50">
+      <c r="F42" s="49">
         <v>0.57299999999999995</v>
       </c>
-      <c r="G42" s="50">
+      <c r="G42" s="49">
         <v>0.88800000000000001</v>
       </c>
       <c r="I42" t="s">
         <v>60</v>
       </c>
-      <c r="J42" s="50">
+      <c r="J42" s="49">
         <v>0.77500000000000002</v>
       </c>
-      <c r="L42" s="50">
+      <c r="L42" s="49">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="M42" s="50">
+      <c r="M42" s="49">
         <v>0.376</v>
       </c>
-      <c r="N42" s="50">
+      <c r="N42" s="49">
         <v>0.55200000000000005</v>
       </c>
-      <c r="O42" s="50">
+      <c r="O42" s="49">
         <v>0.84899999999999998</v>
       </c>
     </row>
@@ -6089,7 +6089,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="6" max="8" width="11.5" style="20"/>
+    <col min="6" max="8" width="11.5" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
@@ -8543,9 +8543,9 @@
   <cols>
     <col min="1" max="2" width="10.83203125" style="2"/>
     <col min="3" max="3" width="8.1640625" style="2" customWidth="1"/>
-    <col min="4" max="6" width="10.83203125" style="24"/>
-    <col min="7" max="7" width="4.83203125" style="24" customWidth="1"/>
-    <col min="8" max="10" width="10.83203125" style="24"/>
+    <col min="4" max="6" width="10.83203125" style="23"/>
+    <col min="7" max="7" width="4.83203125" style="23" customWidth="1"/>
+    <col min="8" max="10" width="10.83203125" style="23"/>
     <col min="11" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
@@ -10749,7 +10749,7 @@
         <f t="shared" si="3"/>
         <v>0.28487318840579701</v>
       </c>
-      <c r="G39" s="23"/>
+      <c r="G39" s="22"/>
       <c r="H39" s="6">
         <f t="shared" si="4"/>
         <v>8.1253225806451598E-2</v>
@@ -10792,26 +10792,26 @@
       <c r="A40" s="5"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
-      <c r="D40" s="23"/>
-      <c r="E40" s="23"/>
-      <c r="F40" s="23"/>
-      <c r="G40" s="23"/>
-      <c r="H40" s="23"/>
-      <c r="I40" s="23"/>
-      <c r="J40" s="23"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="22"/>
+      <c r="H40" s="22"/>
+      <c r="I40" s="22"/>
+      <c r="J40" s="22"/>
       <c r="K40" s="5"/>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
-      <c r="D41" s="23"/>
-      <c r="E41" s="23"/>
-      <c r="F41" s="23"/>
-      <c r="G41" s="23"/>
-      <c r="H41" s="23"/>
-      <c r="I41" s="23"/>
-      <c r="J41" s="23"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="22"/>
+      <c r="G41" s="22"/>
+      <c r="H41" s="22"/>
+      <c r="I41" s="22"/>
+      <c r="J41" s="22"/>
       <c r="K41" s="5"/>
     </row>
   </sheetData>
@@ -14937,8 +14937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G39"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39:G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -15724,13 +15724,13 @@
         <v>12.416363073110301</v>
       </c>
       <c r="D39" s="5"/>
-      <c r="E39" s="13">
+      <c r="E39" s="12">
         <v>8.1621370042609005</v>
       </c>
-      <c r="F39" s="13">
+      <c r="F39" s="12">
         <v>13.090461989733599</v>
       </c>
-      <c r="G39" s="13">
+      <c r="G39" s="12">
         <v>18.3079510086455</v>
       </c>
     </row>
@@ -15751,8 +15751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:J43"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:XFD27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
